--- a/input/IND_hist.xlsx
+++ b/input/IND_hist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epish\PycharmProjects\endemo-endemo-v2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4433B2-8AEF-4CAE-A92A-8B78B8B081A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD8A2BD-24FD-448B-AC13-5E10CAA7B6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$BV$814</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$BV$873</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="102">
   <si>
     <t>Region</t>
   </si>
@@ -351,9 +351,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -433,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -489,6 +491,8 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,16 +911,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BV814"/>
+  <dimension ref="A1:BV873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AV284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G295" sqref="G295"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="53" max="53" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1142,7 +1153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1305,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="3" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="5" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1902,7 +1913,7 @@
         <v>29732</v>
       </c>
     </row>
-    <row r="7" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2054,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +2369,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="10" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>10523</v>
       </c>
     </row>
-    <row r="11" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2608,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2760,7 +2771,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="13" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2852,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3004,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3156,7 +3167,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="16" spans="1:74" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3308,7 +3319,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="17" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>6177</v>
       </c>
     </row>
-    <row r="18" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3612,7 +3623,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="19" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3764,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3916,7 +3927,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="21" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4014,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -4166,7 +4177,7 @@
         <v>4785</v>
       </c>
     </row>
-    <row r="23" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="24" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4470,7 +4481,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="25" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4622,7 +4633,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="26" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4774,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4926,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5176,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5328,7 +5339,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="31" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="32" spans="1:54" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5515,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -5582,7 +5593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -5608,7 +5619,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -5634,7 +5645,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="37" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -5660,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -5686,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -5715,7 +5726,7 @@
         <v>2.7152501985702941</v>
       </c>
     </row>
-    <row r="40" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -5744,7 +5755,7 @@
         <v>2.7152501985702941</v>
       </c>
     </row>
-    <row r="41" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -5773,7 +5784,7 @@
         <v>3.2847498014297059</v>
       </c>
     </row>
-    <row r="42" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -5802,7 +5813,7 @@
         <v>3.2847498014297059</v>
       </c>
     </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -5831,7 +5842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -5860,7 +5871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -5889,7 +5900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5918,7 +5929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -5947,7 +5958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -5976,7 +5987,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -6002,7 +6013,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="50" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -6028,7 +6039,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="51" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -6054,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -6080,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -6106,7 +6117,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="54" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -6132,7 +6143,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="55" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -6155,7 +6166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -6181,7 +6192,7 @@
         <v>1.1160000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -6207,7 +6218,7 @@
         <v>1.1160000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -6233,7 +6244,7 @@
         <v>6.4073592000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -6259,7 +6270,7 @@
         <v>6.4073592000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -6288,7 +6299,7 @@
         <v>2.7152501985702941</v>
       </c>
     </row>
-    <row r="61" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -6317,7 +6328,7 @@
         <v>2.7152501985702941</v>
       </c>
     </row>
-    <row r="62" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -6346,7 +6357,7 @@
         <v>3.2847498014297059</v>
       </c>
     </row>
-    <row r="63" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -6375,7 +6386,7 @@
         <v>3.2847498014297059</v>
       </c>
     </row>
-    <row r="64" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -6433,7 +6444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -6462,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -6491,7 +6502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -6520,7 +6531,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -6549,7 +6560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -6575,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -6601,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -6627,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -6653,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -6679,7 +6690,7 @@
         <v>7.5233591999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -6705,7 +6716,7 @@
         <v>7.5233591999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -6728,7 +6739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -24200,7 +24211,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="284" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -24220,7 +24231,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="285" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -24240,7 +24251,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="286" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -24260,7 +24271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="287" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -24280,7 +24291,7 @@
         <v>0.22306799999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -24300,7 +24311,7 @@
         <v>2583.012916666667</v>
       </c>
     </row>
-    <row r="289" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -24320,7 +24331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>18</v>
       </c>
@@ -24340,7 +24351,7 @@
         <v>52.975622000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -24360,7 +24371,7 @@
         <v>417.7713333333333</v>
       </c>
     </row>
-    <row r="292" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>20</v>
       </c>
@@ -24380,7 +24391,7 @@
         <v>785.25210533333336</v>
       </c>
     </row>
-    <row r="293" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>21</v>
       </c>
@@ -24400,7 +24411,7 @@
         <v>325.59424999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>22</v>
       </c>
@@ -24420,7 +24431,7 @@
         <v>304.97899999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>23</v>
       </c>
@@ -24440,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>25</v>
       </c>
@@ -24460,7 +24471,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="297" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -24480,7 +24491,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="298" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>27</v>
       </c>
@@ -24500,7 +24511,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>28</v>
       </c>
@@ -24520,7 +24531,7 @@
         <v>2028.4280000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>29</v>
       </c>
@@ -24540,7 +24551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>30</v>
       </c>
@@ -24560,7 +24571,7 @@
         <v>750.92127200000004</v>
       </c>
     </row>
-    <row r="302" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>31</v>
       </c>
@@ -24580,7 +24591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -24600,7 +24611,7 @@
         <v>399.19603999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>33</v>
       </c>
@@ -24620,7 +24631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>34</v>
       </c>
@@ -24640,7 +24651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>35</v>
       </c>
@@ -24660,7 +24671,7 @@
         <v>313.39298350000001</v>
       </c>
     </row>
-    <row r="307" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>36</v>
       </c>
@@ -24680,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>38</v>
       </c>
@@ -24700,7 +24711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>40</v>
       </c>
@@ -24720,7 +24731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>41</v>
       </c>
@@ -24740,7 +24751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>45</v>
       </c>
@@ -24760,7 +24771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>42</v>
       </c>
@@ -24780,7 +24791,7 @@
         <v>763.54630658333338</v>
       </c>
     </row>
-    <row r="313" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -25412,7 +25423,7 @@
       <c r="H336" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA336">
+      <c r="BA336" s="23">
         <v>5.480067</v>
       </c>
       <c r="BU336" t="s">
@@ -25435,7 +25446,7 @@
       <c r="H337" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA337">
+      <c r="BA337" s="23">
         <v>0</v>
       </c>
       <c r="BU337" t="s">
@@ -25458,7 +25469,7 @@
       <c r="H338" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA338">
+      <c r="BA338" s="23">
         <v>0.48299999999999998</v>
       </c>
       <c r="BU338" t="s">
@@ -25481,7 +25492,7 @@
       <c r="H339" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA339">
+      <c r="BA339" s="23">
         <v>0.25164999999999998</v>
       </c>
       <c r="BU339" t="s">
@@ -25504,7 +25515,7 @@
       <c r="H340" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA340">
+      <c r="BA340" s="23">
         <v>1129.557</v>
       </c>
       <c r="BU340" t="s">
@@ -25527,7 +25538,7 @@
       <c r="H341" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA341">
+      <c r="BA341" s="23">
         <v>0</v>
       </c>
       <c r="BU341" t="s">
@@ -25550,7 +25561,7 @@
       <c r="H342" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA342">
+      <c r="BA342" s="23">
         <v>0</v>
       </c>
       <c r="BU342" t="s">
@@ -25573,7 +25584,7 @@
       <c r="H343" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA343">
+      <c r="BA343" s="23">
         <v>0.8125</v>
       </c>
       <c r="BU343" t="s">
@@ -25596,7 +25607,7 @@
       <c r="H344" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA344">
+      <c r="BA344" s="23">
         <v>13.637166000000001</v>
       </c>
       <c r="BU344" t="s">
@@ -25619,7 +25630,7 @@
       <c r="H345" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA345">
+      <c r="BA345" s="23">
         <v>1.312E-3</v>
       </c>
       <c r="BU345" t="s">
@@ -25642,7 +25653,7 @@
       <c r="H346" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA346">
+      <c r="BA346" s="23">
         <v>0</v>
       </c>
       <c r="BU346" t="s">
@@ -25665,7 +25676,7 @@
       <c r="H347" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA347">
+      <c r="BA347" s="23">
         <v>0</v>
       </c>
       <c r="BU347" t="s">
@@ -25688,7 +25699,7 @@
       <c r="H348" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA348">
+      <c r="BA348" s="23">
         <v>0.10299999999999999</v>
       </c>
       <c r="BU348" t="s">
@@ -25711,7 +25722,7 @@
       <c r="H349" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA349">
+      <c r="BA349" s="23">
         <v>477.34</v>
       </c>
       <c r="BU349" t="s">
@@ -25734,7 +25745,7 @@
       <c r="H350" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA350">
+      <c r="BA350" s="23">
         <v>0</v>
       </c>
       <c r="BU350" t="s">
@@ -25757,7 +25768,7 @@
       <c r="H351" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA351">
+      <c r="BA351" s="23">
         <v>0</v>
       </c>
       <c r="BU351" t="s">
@@ -25780,7 +25791,7 @@
       <c r="H352" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA352">
+      <c r="BA352" s="23">
         <v>0</v>
       </c>
       <c r="BU352" t="s">
@@ -25803,7 +25814,7 @@
       <c r="H353" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA353">
+      <c r="BA353" s="23">
         <v>1.0061E-2</v>
       </c>
       <c r="BU353" t="s">
@@ -25826,7 +25837,7 @@
       <c r="H354" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA354">
+      <c r="BA354" s="23">
         <v>0</v>
       </c>
       <c r="BU354" t="s">
@@ -25849,7 +25860,7 @@
       <c r="H355" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA355">
+      <c r="BA355" s="23">
         <v>0</v>
       </c>
       <c r="BU355" t="s">
@@ -25872,7 +25883,7 @@
       <c r="H356" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA356">
+      <c r="BA356" s="23">
         <v>0</v>
       </c>
       <c r="BU356" t="s">
@@ -25895,7 +25906,7 @@
       <c r="H357" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA357">
+      <c r="BA357" s="23">
         <v>0</v>
       </c>
       <c r="BU357" t="s">
@@ -25918,7 +25929,7 @@
       <c r="H358" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA358">
+      <c r="BA358" s="23">
         <v>0.164385</v>
       </c>
       <c r="BU358" t="s">
@@ -25941,7 +25952,7 @@
       <c r="H359" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA359">
+      <c r="BA359" s="23">
         <v>720</v>
       </c>
       <c r="BU359" t="s">
@@ -25964,7 +25975,7 @@
       <c r="H360" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA360">
+      <c r="BA360" s="23">
         <v>0</v>
       </c>
       <c r="BU360" t="s">
@@ -25987,7 +25998,7 @@
       <c r="H361" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA361">
+      <c r="BA361" s="23">
         <v>156</v>
       </c>
       <c r="BU361" t="s">
@@ -26010,7 +26021,7 @@
       <c r="H362" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA362">
+      <c r="BA362" s="23">
         <v>0</v>
       </c>
       <c r="BU362" t="s">
@@ -26033,7 +26044,7 @@
       <c r="H363" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA363">
+      <c r="BA363" s="23">
         <v>0</v>
       </c>
       <c r="BU363" t="s">
@@ -26056,7 +26067,7 @@
       <c r="H364" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA364">
+      <c r="BA364" s="23">
         <v>0</v>
       </c>
       <c r="BU364" t="s">
@@ -26079,7 +26090,7 @@
       <c r="H365" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA365">
+      <c r="BA365" s="23">
         <v>0</v>
       </c>
       <c r="BU365" t="s">
@@ -26108,6 +26119,9 @@
       <c r="H366" t="s">
         <v>81</v>
       </c>
+      <c r="BC366">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:73" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
@@ -26406,6 +26420,9 @@
       <c r="H377" t="s">
         <v>81</v>
       </c>
+      <c r="BC377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
@@ -28053,9 +28070,70 @@
       <c r="H443" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA443">
+      <c r="I443" s="23"/>
+      <c r="J443" s="23"/>
+      <c r="K443" s="23"/>
+      <c r="L443" s="23"/>
+      <c r="M443" s="23"/>
+      <c r="N443" s="23"/>
+      <c r="O443" s="23"/>
+      <c r="P443" s="23"/>
+      <c r="Q443" s="23"/>
+      <c r="R443" s="23"/>
+      <c r="S443" s="23"/>
+      <c r="T443" s="23"/>
+      <c r="U443" s="23"/>
+      <c r="V443" s="23"/>
+      <c r="W443" s="23"/>
+      <c r="X443" s="23"/>
+      <c r="Y443" s="23"/>
+      <c r="Z443" s="23"/>
+      <c r="AA443" s="23"/>
+      <c r="AB443" s="23"/>
+      <c r="AC443" s="23"/>
+      <c r="AD443" s="23"/>
+      <c r="AE443" s="23"/>
+      <c r="AF443" s="23"/>
+      <c r="AG443" s="23"/>
+      <c r="AH443" s="23"/>
+      <c r="AI443" s="23"/>
+      <c r="AJ443" s="23"/>
+      <c r="AK443" s="23"/>
+      <c r="AL443" s="23"/>
+      <c r="AM443" s="23"/>
+      <c r="AN443" s="23"/>
+      <c r="AO443" s="23"/>
+      <c r="AP443" s="23"/>
+      <c r="AQ443" s="23"/>
+      <c r="AR443" s="23"/>
+      <c r="AS443" s="23"/>
+      <c r="AT443" s="23"/>
+      <c r="AU443" s="23"/>
+      <c r="AV443" s="23"/>
+      <c r="AW443" s="23"/>
+      <c r="AX443" s="23"/>
+      <c r="AY443" s="23"/>
+      <c r="AZ443" s="23"/>
+      <c r="BA443" s="23"/>
+      <c r="BB443" s="23"/>
+      <c r="BC443" s="23">
         <v>1193.0465022727269</v>
       </c>
+      <c r="BD443" s="23"/>
+      <c r="BE443" s="23"/>
+      <c r="BF443" s="23"/>
+      <c r="BG443" s="23"/>
+      <c r="BH443" s="23"/>
+      <c r="BI443" s="23"/>
+      <c r="BJ443" s="23"/>
+      <c r="BK443" s="23"/>
+      <c r="BL443" s="23"/>
+      <c r="BM443" s="23"/>
+      <c r="BN443" s="23"/>
+      <c r="BO443" s="23"/>
+      <c r="BP443" s="23"/>
+      <c r="BQ443" s="23"/>
+      <c r="BR443" s="23"/>
       <c r="BT443" t="s">
         <v>91</v>
       </c>
@@ -28076,9 +28154,70 @@
       <c r="H444" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA444">
-        <v>0</v>
-      </c>
+      <c r="I444" s="23"/>
+      <c r="J444" s="23"/>
+      <c r="K444" s="23"/>
+      <c r="L444" s="23"/>
+      <c r="M444" s="23"/>
+      <c r="N444" s="23"/>
+      <c r="O444" s="23"/>
+      <c r="P444" s="23"/>
+      <c r="Q444" s="23"/>
+      <c r="R444" s="23"/>
+      <c r="S444" s="23"/>
+      <c r="T444" s="23"/>
+      <c r="U444" s="23"/>
+      <c r="V444" s="23"/>
+      <c r="W444" s="23"/>
+      <c r="X444" s="23"/>
+      <c r="Y444" s="23"/>
+      <c r="Z444" s="23"/>
+      <c r="AA444" s="23"/>
+      <c r="AB444" s="23"/>
+      <c r="AC444" s="23"/>
+      <c r="AD444" s="23"/>
+      <c r="AE444" s="23"/>
+      <c r="AF444" s="23"/>
+      <c r="AG444" s="23"/>
+      <c r="AH444" s="23"/>
+      <c r="AI444" s="23"/>
+      <c r="AJ444" s="23"/>
+      <c r="AK444" s="23"/>
+      <c r="AL444" s="23"/>
+      <c r="AM444" s="23"/>
+      <c r="AN444" s="23"/>
+      <c r="AO444" s="23"/>
+      <c r="AP444" s="23"/>
+      <c r="AQ444" s="23"/>
+      <c r="AR444" s="23"/>
+      <c r="AS444" s="23"/>
+      <c r="AT444" s="23"/>
+      <c r="AU444" s="23"/>
+      <c r="AV444" s="23"/>
+      <c r="AW444" s="23"/>
+      <c r="AX444" s="23"/>
+      <c r="AY444" s="23"/>
+      <c r="AZ444" s="23"/>
+      <c r="BA444" s="23"/>
+      <c r="BB444" s="23"/>
+      <c r="BC444" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD444" s="23"/>
+      <c r="BE444" s="23"/>
+      <c r="BF444" s="23"/>
+      <c r="BG444" s="23"/>
+      <c r="BH444" s="23"/>
+      <c r="BI444" s="23"/>
+      <c r="BJ444" s="23"/>
+      <c r="BK444" s="23"/>
+      <c r="BL444" s="23"/>
+      <c r="BM444" s="23"/>
+      <c r="BN444" s="23"/>
+      <c r="BO444" s="23"/>
+      <c r="BP444" s="23"/>
+      <c r="BQ444" s="23"/>
+      <c r="BR444" s="23"/>
       <c r="BT444" t="s">
         <v>91</v>
       </c>
@@ -28099,9 +28238,70 @@
       <c r="H445" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA445">
+      <c r="I445" s="23"/>
+      <c r="J445" s="23"/>
+      <c r="K445" s="23"/>
+      <c r="L445" s="23"/>
+      <c r="M445" s="23"/>
+      <c r="N445" s="23"/>
+      <c r="O445" s="23"/>
+      <c r="P445" s="23"/>
+      <c r="Q445" s="23"/>
+      <c r="R445" s="23"/>
+      <c r="S445" s="23"/>
+      <c r="T445" s="23"/>
+      <c r="U445" s="23"/>
+      <c r="V445" s="23"/>
+      <c r="W445" s="23"/>
+      <c r="X445" s="23"/>
+      <c r="Y445" s="23"/>
+      <c r="Z445" s="23"/>
+      <c r="AA445" s="23"/>
+      <c r="AB445" s="23"/>
+      <c r="AC445" s="23"/>
+      <c r="AD445" s="23"/>
+      <c r="AE445" s="23"/>
+      <c r="AF445" s="23"/>
+      <c r="AG445" s="23"/>
+      <c r="AH445" s="23"/>
+      <c r="AI445" s="23"/>
+      <c r="AJ445" s="23"/>
+      <c r="AK445" s="23"/>
+      <c r="AL445" s="23"/>
+      <c r="AM445" s="23"/>
+      <c r="AN445" s="23"/>
+      <c r="AO445" s="23"/>
+      <c r="AP445" s="23"/>
+      <c r="AQ445" s="23"/>
+      <c r="AR445" s="23"/>
+      <c r="AS445" s="23"/>
+      <c r="AT445" s="23"/>
+      <c r="AU445" s="23"/>
+      <c r="AV445" s="23"/>
+      <c r="AW445" s="23"/>
+      <c r="AX445" s="23"/>
+      <c r="AY445" s="23"/>
+      <c r="AZ445" s="23"/>
+      <c r="BA445" s="23"/>
+      <c r="BB445" s="23"/>
+      <c r="BC445" s="23">
         <v>217.6</v>
       </c>
+      <c r="BD445" s="23"/>
+      <c r="BE445" s="23"/>
+      <c r="BF445" s="23"/>
+      <c r="BG445" s="23"/>
+      <c r="BH445" s="23"/>
+      <c r="BI445" s="23"/>
+      <c r="BJ445" s="23"/>
+      <c r="BK445" s="23"/>
+      <c r="BL445" s="23"/>
+      <c r="BM445" s="23"/>
+      <c r="BN445" s="23"/>
+      <c r="BO445" s="23"/>
+      <c r="BP445" s="23"/>
+      <c r="BQ445" s="23"/>
+      <c r="BR445" s="23"/>
       <c r="BT445" t="s">
         <v>92</v>
       </c>
@@ -28122,9 +28322,70 @@
       <c r="H446" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA446">
-        <v>0</v>
-      </c>
+      <c r="I446" s="23"/>
+      <c r="J446" s="23"/>
+      <c r="K446" s="23"/>
+      <c r="L446" s="23"/>
+      <c r="M446" s="23"/>
+      <c r="N446" s="23"/>
+      <c r="O446" s="23"/>
+      <c r="P446" s="23"/>
+      <c r="Q446" s="23"/>
+      <c r="R446" s="23"/>
+      <c r="S446" s="23"/>
+      <c r="T446" s="23"/>
+      <c r="U446" s="23"/>
+      <c r="V446" s="23"/>
+      <c r="W446" s="23"/>
+      <c r="X446" s="23"/>
+      <c r="Y446" s="23"/>
+      <c r="Z446" s="23"/>
+      <c r="AA446" s="23"/>
+      <c r="AB446" s="23"/>
+      <c r="AC446" s="23"/>
+      <c r="AD446" s="23"/>
+      <c r="AE446" s="23"/>
+      <c r="AF446" s="23"/>
+      <c r="AG446" s="23"/>
+      <c r="AH446" s="23"/>
+      <c r="AI446" s="23"/>
+      <c r="AJ446" s="23"/>
+      <c r="AK446" s="23"/>
+      <c r="AL446" s="23"/>
+      <c r="AM446" s="23"/>
+      <c r="AN446" s="23"/>
+      <c r="AO446" s="23"/>
+      <c r="AP446" s="23"/>
+      <c r="AQ446" s="23"/>
+      <c r="AR446" s="23"/>
+      <c r="AS446" s="23"/>
+      <c r="AT446" s="23"/>
+      <c r="AU446" s="23"/>
+      <c r="AV446" s="23"/>
+      <c r="AW446" s="23"/>
+      <c r="AX446" s="23"/>
+      <c r="AY446" s="23"/>
+      <c r="AZ446" s="23"/>
+      <c r="BA446" s="23"/>
+      <c r="BB446" s="23"/>
+      <c r="BC446" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD446" s="23"/>
+      <c r="BE446" s="23"/>
+      <c r="BF446" s="23"/>
+      <c r="BG446" s="23"/>
+      <c r="BH446" s="23"/>
+      <c r="BI446" s="23"/>
+      <c r="BJ446" s="23"/>
+      <c r="BK446" s="23"/>
+      <c r="BL446" s="23"/>
+      <c r="BM446" s="23"/>
+      <c r="BN446" s="23"/>
+      <c r="BO446" s="23"/>
+      <c r="BP446" s="23"/>
+      <c r="BQ446" s="23"/>
+      <c r="BR446" s="23"/>
       <c r="BT446" t="s">
         <v>91</v>
       </c>
@@ -28145,9 +28406,70 @@
       <c r="H447" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA447">
+      <c r="I447" s="23"/>
+      <c r="J447" s="23"/>
+      <c r="K447" s="23"/>
+      <c r="L447" s="23"/>
+      <c r="M447" s="23"/>
+      <c r="N447" s="23"/>
+      <c r="O447" s="23"/>
+      <c r="P447" s="23"/>
+      <c r="Q447" s="23"/>
+      <c r="R447" s="23"/>
+      <c r="S447" s="23"/>
+      <c r="T447" s="23"/>
+      <c r="U447" s="23"/>
+      <c r="V447" s="23"/>
+      <c r="W447" s="23"/>
+      <c r="X447" s="23"/>
+      <c r="Y447" s="23"/>
+      <c r="Z447" s="23"/>
+      <c r="AA447" s="23"/>
+      <c r="AB447" s="23"/>
+      <c r="AC447" s="23"/>
+      <c r="AD447" s="23"/>
+      <c r="AE447" s="23"/>
+      <c r="AF447" s="23"/>
+      <c r="AG447" s="23"/>
+      <c r="AH447" s="23"/>
+      <c r="AI447" s="23"/>
+      <c r="AJ447" s="23"/>
+      <c r="AK447" s="23"/>
+      <c r="AL447" s="23"/>
+      <c r="AM447" s="23"/>
+      <c r="AN447" s="23"/>
+      <c r="AO447" s="23"/>
+      <c r="AP447" s="23"/>
+      <c r="AQ447" s="23"/>
+      <c r="AR447" s="23"/>
+      <c r="AS447" s="23"/>
+      <c r="AT447" s="23"/>
+      <c r="AU447" s="23"/>
+      <c r="AV447" s="23"/>
+      <c r="AW447" s="23"/>
+      <c r="AX447" s="23"/>
+      <c r="AY447" s="23"/>
+      <c r="AZ447" s="23"/>
+      <c r="BA447" s="23"/>
+      <c r="BB447" s="23"/>
+      <c r="BC447" s="23">
         <v>3838.2545</v>
       </c>
+      <c r="BD447" s="23"/>
+      <c r="BE447" s="23"/>
+      <c r="BF447" s="23"/>
+      <c r="BG447" s="23"/>
+      <c r="BH447" s="23"/>
+      <c r="BI447" s="23"/>
+      <c r="BJ447" s="23"/>
+      <c r="BK447" s="23"/>
+      <c r="BL447" s="23"/>
+      <c r="BM447" s="23"/>
+      <c r="BN447" s="23"/>
+      <c r="BO447" s="23"/>
+      <c r="BP447" s="23"/>
+      <c r="BQ447" s="23"/>
+      <c r="BR447" s="23"/>
       <c r="BT447" t="s">
         <v>91</v>
       </c>
@@ -28168,9 +28490,70 @@
       <c r="H448" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA448">
-        <v>0</v>
-      </c>
+      <c r="I448" s="23"/>
+      <c r="J448" s="23"/>
+      <c r="K448" s="23"/>
+      <c r="L448" s="23"/>
+      <c r="M448" s="23"/>
+      <c r="N448" s="23"/>
+      <c r="O448" s="23"/>
+      <c r="P448" s="23"/>
+      <c r="Q448" s="23"/>
+      <c r="R448" s="23"/>
+      <c r="S448" s="23"/>
+      <c r="T448" s="23"/>
+      <c r="U448" s="23"/>
+      <c r="V448" s="23"/>
+      <c r="W448" s="23"/>
+      <c r="X448" s="23"/>
+      <c r="Y448" s="23"/>
+      <c r="Z448" s="23"/>
+      <c r="AA448" s="23"/>
+      <c r="AB448" s="23"/>
+      <c r="AC448" s="23"/>
+      <c r="AD448" s="23"/>
+      <c r="AE448" s="23"/>
+      <c r="AF448" s="23"/>
+      <c r="AG448" s="23"/>
+      <c r="AH448" s="23"/>
+      <c r="AI448" s="23"/>
+      <c r="AJ448" s="23"/>
+      <c r="AK448" s="23"/>
+      <c r="AL448" s="23"/>
+      <c r="AM448" s="23"/>
+      <c r="AN448" s="23"/>
+      <c r="AO448" s="23"/>
+      <c r="AP448" s="23"/>
+      <c r="AQ448" s="23"/>
+      <c r="AR448" s="23"/>
+      <c r="AS448" s="23"/>
+      <c r="AT448" s="23"/>
+      <c r="AU448" s="23"/>
+      <c r="AV448" s="23"/>
+      <c r="AW448" s="23"/>
+      <c r="AX448" s="23"/>
+      <c r="AY448" s="23"/>
+      <c r="AZ448" s="23"/>
+      <c r="BA448" s="23"/>
+      <c r="BB448" s="23"/>
+      <c r="BC448" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD448" s="23"/>
+      <c r="BE448" s="23"/>
+      <c r="BF448" s="23"/>
+      <c r="BG448" s="23"/>
+      <c r="BH448" s="23"/>
+      <c r="BI448" s="23"/>
+      <c r="BJ448" s="23"/>
+      <c r="BK448" s="23"/>
+      <c r="BL448" s="23"/>
+      <c r="BM448" s="23"/>
+      <c r="BN448" s="23"/>
+      <c r="BO448" s="23"/>
+      <c r="BP448" s="23"/>
+      <c r="BQ448" s="23"/>
+      <c r="BR448" s="23"/>
       <c r="BT448" t="s">
         <v>91</v>
       </c>
@@ -28191,9 +28574,70 @@
       <c r="H449" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA449">
-        <v>0</v>
-      </c>
+      <c r="I449" s="23"/>
+      <c r="J449" s="23"/>
+      <c r="K449" s="23"/>
+      <c r="L449" s="23"/>
+      <c r="M449" s="23"/>
+      <c r="N449" s="23"/>
+      <c r="O449" s="23"/>
+      <c r="P449" s="23"/>
+      <c r="Q449" s="23"/>
+      <c r="R449" s="23"/>
+      <c r="S449" s="23"/>
+      <c r="T449" s="23"/>
+      <c r="U449" s="23"/>
+      <c r="V449" s="23"/>
+      <c r="W449" s="23"/>
+      <c r="X449" s="23"/>
+      <c r="Y449" s="23"/>
+      <c r="Z449" s="23"/>
+      <c r="AA449" s="23"/>
+      <c r="AB449" s="23"/>
+      <c r="AC449" s="23"/>
+      <c r="AD449" s="23"/>
+      <c r="AE449" s="23"/>
+      <c r="AF449" s="23"/>
+      <c r="AG449" s="23"/>
+      <c r="AH449" s="23"/>
+      <c r="AI449" s="23"/>
+      <c r="AJ449" s="23"/>
+      <c r="AK449" s="23"/>
+      <c r="AL449" s="23"/>
+      <c r="AM449" s="23"/>
+      <c r="AN449" s="23"/>
+      <c r="AO449" s="23"/>
+      <c r="AP449" s="23"/>
+      <c r="AQ449" s="23"/>
+      <c r="AR449" s="23"/>
+      <c r="AS449" s="23"/>
+      <c r="AT449" s="23"/>
+      <c r="AU449" s="23"/>
+      <c r="AV449" s="23"/>
+      <c r="AW449" s="23"/>
+      <c r="AX449" s="23"/>
+      <c r="AY449" s="23"/>
+      <c r="AZ449" s="23"/>
+      <c r="BA449" s="23"/>
+      <c r="BB449" s="23"/>
+      <c r="BC449" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD449" s="23"/>
+      <c r="BE449" s="23"/>
+      <c r="BF449" s="23"/>
+      <c r="BG449" s="23"/>
+      <c r="BH449" s="23"/>
+      <c r="BI449" s="23"/>
+      <c r="BJ449" s="23"/>
+      <c r="BK449" s="23"/>
+      <c r="BL449" s="23"/>
+      <c r="BM449" s="23"/>
+      <c r="BN449" s="23"/>
+      <c r="BO449" s="23"/>
+      <c r="BP449" s="23"/>
+      <c r="BQ449" s="23"/>
+      <c r="BR449" s="23"/>
       <c r="BT449" t="s">
         <v>91</v>
       </c>
@@ -28214,9 +28658,70 @@
       <c r="H450" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA450">
+      <c r="I450" s="23"/>
+      <c r="J450" s="23"/>
+      <c r="K450" s="23"/>
+      <c r="L450" s="23"/>
+      <c r="M450" s="23"/>
+      <c r="N450" s="23"/>
+      <c r="O450" s="23"/>
+      <c r="P450" s="23"/>
+      <c r="Q450" s="23"/>
+      <c r="R450" s="23"/>
+      <c r="S450" s="23"/>
+      <c r="T450" s="23"/>
+      <c r="U450" s="23"/>
+      <c r="V450" s="23"/>
+      <c r="W450" s="23"/>
+      <c r="X450" s="23"/>
+      <c r="Y450" s="23"/>
+      <c r="Z450" s="23"/>
+      <c r="AA450" s="23"/>
+      <c r="AB450" s="23"/>
+      <c r="AC450" s="23"/>
+      <c r="AD450" s="23"/>
+      <c r="AE450" s="23"/>
+      <c r="AF450" s="23"/>
+      <c r="AG450" s="23"/>
+      <c r="AH450" s="23"/>
+      <c r="AI450" s="23"/>
+      <c r="AJ450" s="23"/>
+      <c r="AK450" s="23"/>
+      <c r="AL450" s="23"/>
+      <c r="AM450" s="23"/>
+      <c r="AN450" s="23"/>
+      <c r="AO450" s="23"/>
+      <c r="AP450" s="23"/>
+      <c r="AQ450" s="23"/>
+      <c r="AR450" s="23"/>
+      <c r="AS450" s="23"/>
+      <c r="AT450" s="23"/>
+      <c r="AU450" s="23"/>
+      <c r="AV450" s="23"/>
+      <c r="AW450" s="23"/>
+      <c r="AX450" s="23"/>
+      <c r="AY450" s="23"/>
+      <c r="AZ450" s="23"/>
+      <c r="BA450" s="23"/>
+      <c r="BB450" s="23"/>
+      <c r="BC450" s="23">
         <v>1219.6805999999999</v>
       </c>
+      <c r="BD450" s="23"/>
+      <c r="BE450" s="23"/>
+      <c r="BF450" s="23"/>
+      <c r="BG450" s="23"/>
+      <c r="BH450" s="23"/>
+      <c r="BI450" s="23"/>
+      <c r="BJ450" s="23"/>
+      <c r="BK450" s="23"/>
+      <c r="BL450" s="23"/>
+      <c r="BM450" s="23"/>
+      <c r="BN450" s="23"/>
+      <c r="BO450" s="23"/>
+      <c r="BP450" s="23"/>
+      <c r="BQ450" s="23"/>
+      <c r="BR450" s="23"/>
       <c r="BT450" t="s">
         <v>91</v>
       </c>
@@ -28237,9 +28742,70 @@
       <c r="H451" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA451">
+      <c r="I451" s="23"/>
+      <c r="J451" s="23"/>
+      <c r="K451" s="23"/>
+      <c r="L451" s="23"/>
+      <c r="M451" s="23"/>
+      <c r="N451" s="23"/>
+      <c r="O451" s="23"/>
+      <c r="P451" s="23"/>
+      <c r="Q451" s="23"/>
+      <c r="R451" s="23"/>
+      <c r="S451" s="23"/>
+      <c r="T451" s="23"/>
+      <c r="U451" s="23"/>
+      <c r="V451" s="23"/>
+      <c r="W451" s="23"/>
+      <c r="X451" s="23"/>
+      <c r="Y451" s="23"/>
+      <c r="Z451" s="23"/>
+      <c r="AA451" s="23"/>
+      <c r="AB451" s="23"/>
+      <c r="AC451" s="23"/>
+      <c r="AD451" s="23"/>
+      <c r="AE451" s="23"/>
+      <c r="AF451" s="23"/>
+      <c r="AG451" s="23"/>
+      <c r="AH451" s="23"/>
+      <c r="AI451" s="23"/>
+      <c r="AJ451" s="23"/>
+      <c r="AK451" s="23"/>
+      <c r="AL451" s="23"/>
+      <c r="AM451" s="23"/>
+      <c r="AN451" s="23"/>
+      <c r="AO451" s="23"/>
+      <c r="AP451" s="23"/>
+      <c r="AQ451" s="23"/>
+      <c r="AR451" s="23"/>
+      <c r="AS451" s="23"/>
+      <c r="AT451" s="23"/>
+      <c r="AU451" s="23"/>
+      <c r="AV451" s="23"/>
+      <c r="AW451" s="23"/>
+      <c r="AX451" s="23"/>
+      <c r="AY451" s="23"/>
+      <c r="AZ451" s="23"/>
+      <c r="BA451" s="23"/>
+      <c r="BB451" s="23"/>
+      <c r="BC451" s="23">
         <v>2176.8173598333328</v>
       </c>
+      <c r="BD451" s="23"/>
+      <c r="BE451" s="23"/>
+      <c r="BF451" s="23"/>
+      <c r="BG451" s="23"/>
+      <c r="BH451" s="23"/>
+      <c r="BI451" s="23"/>
+      <c r="BJ451" s="23"/>
+      <c r="BK451" s="23"/>
+      <c r="BL451" s="23"/>
+      <c r="BM451" s="23"/>
+      <c r="BN451" s="23"/>
+      <c r="BO451" s="23"/>
+      <c r="BP451" s="23"/>
+      <c r="BQ451" s="23"/>
+      <c r="BR451" s="23"/>
       <c r="BT451" t="s">
         <v>91</v>
       </c>
@@ -28260,9 +28826,70 @@
       <c r="H452" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA452">
-        <v>0</v>
-      </c>
+      <c r="I452" s="23"/>
+      <c r="J452" s="23"/>
+      <c r="K452" s="23"/>
+      <c r="L452" s="23"/>
+      <c r="M452" s="23"/>
+      <c r="N452" s="23"/>
+      <c r="O452" s="23"/>
+      <c r="P452" s="23"/>
+      <c r="Q452" s="23"/>
+      <c r="R452" s="23"/>
+      <c r="S452" s="23"/>
+      <c r="T452" s="23"/>
+      <c r="U452" s="23"/>
+      <c r="V452" s="23"/>
+      <c r="W452" s="23"/>
+      <c r="X452" s="23"/>
+      <c r="Y452" s="23"/>
+      <c r="Z452" s="23"/>
+      <c r="AA452" s="23"/>
+      <c r="AB452" s="23"/>
+      <c r="AC452" s="23"/>
+      <c r="AD452" s="23"/>
+      <c r="AE452" s="23"/>
+      <c r="AF452" s="23"/>
+      <c r="AG452" s="23"/>
+      <c r="AH452" s="23"/>
+      <c r="AI452" s="23"/>
+      <c r="AJ452" s="23"/>
+      <c r="AK452" s="23"/>
+      <c r="AL452" s="23"/>
+      <c r="AM452" s="23"/>
+      <c r="AN452" s="23"/>
+      <c r="AO452" s="23"/>
+      <c r="AP452" s="23"/>
+      <c r="AQ452" s="23"/>
+      <c r="AR452" s="23"/>
+      <c r="AS452" s="23"/>
+      <c r="AT452" s="23"/>
+      <c r="AU452" s="23"/>
+      <c r="AV452" s="23"/>
+      <c r="AW452" s="23"/>
+      <c r="AX452" s="23"/>
+      <c r="AY452" s="23"/>
+      <c r="AZ452" s="23"/>
+      <c r="BA452" s="23"/>
+      <c r="BB452" s="23"/>
+      <c r="BC452" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD452" s="23"/>
+      <c r="BE452" s="23"/>
+      <c r="BF452" s="23"/>
+      <c r="BG452" s="23"/>
+      <c r="BH452" s="23"/>
+      <c r="BI452" s="23"/>
+      <c r="BJ452" s="23"/>
+      <c r="BK452" s="23"/>
+      <c r="BL452" s="23"/>
+      <c r="BM452" s="23"/>
+      <c r="BN452" s="23"/>
+      <c r="BO452" s="23"/>
+      <c r="BP452" s="23"/>
+      <c r="BQ452" s="23"/>
+      <c r="BR452" s="23"/>
       <c r="BT452" t="s">
         <v>91</v>
       </c>
@@ -28283,9 +28910,70 @@
       <c r="H453" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA453">
+      <c r="I453" s="23"/>
+      <c r="J453" s="23"/>
+      <c r="K453" s="23"/>
+      <c r="L453" s="23"/>
+      <c r="M453" s="23"/>
+      <c r="N453" s="23"/>
+      <c r="O453" s="23"/>
+      <c r="P453" s="23"/>
+      <c r="Q453" s="23"/>
+      <c r="R453" s="23"/>
+      <c r="S453" s="23"/>
+      <c r="T453" s="23"/>
+      <c r="U453" s="23"/>
+      <c r="V453" s="23"/>
+      <c r="W453" s="23"/>
+      <c r="X453" s="23"/>
+      <c r="Y453" s="23"/>
+      <c r="Z453" s="23"/>
+      <c r="AA453" s="23"/>
+      <c r="AB453" s="23"/>
+      <c r="AC453" s="23"/>
+      <c r="AD453" s="23"/>
+      <c r="AE453" s="23"/>
+      <c r="AF453" s="23"/>
+      <c r="AG453" s="23"/>
+      <c r="AH453" s="23"/>
+      <c r="AI453" s="23"/>
+      <c r="AJ453" s="23"/>
+      <c r="AK453" s="23"/>
+      <c r="AL453" s="23"/>
+      <c r="AM453" s="23"/>
+      <c r="AN453" s="23"/>
+      <c r="AO453" s="23"/>
+      <c r="AP453" s="23"/>
+      <c r="AQ453" s="23"/>
+      <c r="AR453" s="23"/>
+      <c r="AS453" s="23"/>
+      <c r="AT453" s="23"/>
+      <c r="AU453" s="23"/>
+      <c r="AV453" s="23"/>
+      <c r="AW453" s="23"/>
+      <c r="AX453" s="23"/>
+      <c r="AY453" s="23"/>
+      <c r="AZ453" s="23"/>
+      <c r="BA453" s="23"/>
+      <c r="BB453" s="23"/>
+      <c r="BC453" s="23">
         <v>1050</v>
       </c>
+      <c r="BD453" s="23"/>
+      <c r="BE453" s="23"/>
+      <c r="BF453" s="23"/>
+      <c r="BG453" s="23"/>
+      <c r="BH453" s="23"/>
+      <c r="BI453" s="23"/>
+      <c r="BJ453" s="23"/>
+      <c r="BK453" s="23"/>
+      <c r="BL453" s="23"/>
+      <c r="BM453" s="23"/>
+      <c r="BN453" s="23"/>
+      <c r="BO453" s="23"/>
+      <c r="BP453" s="23"/>
+      <c r="BQ453" s="23"/>
+      <c r="BR453" s="23"/>
       <c r="BT453" t="s">
         <v>93</v>
       </c>
@@ -28306,9 +28994,70 @@
       <c r="H454" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA454">
-        <v>0</v>
-      </c>
+      <c r="I454" s="23"/>
+      <c r="J454" s="23"/>
+      <c r="K454" s="23"/>
+      <c r="L454" s="23"/>
+      <c r="M454" s="23"/>
+      <c r="N454" s="23"/>
+      <c r="O454" s="23"/>
+      <c r="P454" s="23"/>
+      <c r="Q454" s="23"/>
+      <c r="R454" s="23"/>
+      <c r="S454" s="23"/>
+      <c r="T454" s="23"/>
+      <c r="U454" s="23"/>
+      <c r="V454" s="23"/>
+      <c r="W454" s="23"/>
+      <c r="X454" s="23"/>
+      <c r="Y454" s="23"/>
+      <c r="Z454" s="23"/>
+      <c r="AA454" s="23"/>
+      <c r="AB454" s="23"/>
+      <c r="AC454" s="23"/>
+      <c r="AD454" s="23"/>
+      <c r="AE454" s="23"/>
+      <c r="AF454" s="23"/>
+      <c r="AG454" s="23"/>
+      <c r="AH454" s="23"/>
+      <c r="AI454" s="23"/>
+      <c r="AJ454" s="23"/>
+      <c r="AK454" s="23"/>
+      <c r="AL454" s="23"/>
+      <c r="AM454" s="23"/>
+      <c r="AN454" s="23"/>
+      <c r="AO454" s="23"/>
+      <c r="AP454" s="23"/>
+      <c r="AQ454" s="23"/>
+      <c r="AR454" s="23"/>
+      <c r="AS454" s="23"/>
+      <c r="AT454" s="23"/>
+      <c r="AU454" s="23"/>
+      <c r="AV454" s="23"/>
+      <c r="AW454" s="23"/>
+      <c r="AX454" s="23"/>
+      <c r="AY454" s="23"/>
+      <c r="AZ454" s="23"/>
+      <c r="BA454" s="23"/>
+      <c r="BB454" s="23"/>
+      <c r="BC454" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD454" s="23"/>
+      <c r="BE454" s="23"/>
+      <c r="BF454" s="23"/>
+      <c r="BG454" s="23"/>
+      <c r="BH454" s="23"/>
+      <c r="BI454" s="23"/>
+      <c r="BJ454" s="23"/>
+      <c r="BK454" s="23"/>
+      <c r="BL454" s="23"/>
+      <c r="BM454" s="23"/>
+      <c r="BN454" s="23"/>
+      <c r="BO454" s="23"/>
+      <c r="BP454" s="23"/>
+      <c r="BQ454" s="23"/>
+      <c r="BR454" s="23"/>
       <c r="BT454" t="s">
         <v>91</v>
       </c>
@@ -28329,9 +29078,70 @@
       <c r="H455" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA455">
+      <c r="I455" s="23"/>
+      <c r="J455" s="23"/>
+      <c r="K455" s="23"/>
+      <c r="L455" s="23"/>
+      <c r="M455" s="23"/>
+      <c r="N455" s="23"/>
+      <c r="O455" s="23"/>
+      <c r="P455" s="23"/>
+      <c r="Q455" s="23"/>
+      <c r="R455" s="23"/>
+      <c r="S455" s="23"/>
+      <c r="T455" s="23"/>
+      <c r="U455" s="23"/>
+      <c r="V455" s="23"/>
+      <c r="W455" s="23"/>
+      <c r="X455" s="23"/>
+      <c r="Y455" s="23"/>
+      <c r="Z455" s="23"/>
+      <c r="AA455" s="23"/>
+      <c r="AB455" s="23"/>
+      <c r="AC455" s="23"/>
+      <c r="AD455" s="23"/>
+      <c r="AE455" s="23"/>
+      <c r="AF455" s="23"/>
+      <c r="AG455" s="23"/>
+      <c r="AH455" s="23"/>
+      <c r="AI455" s="23"/>
+      <c r="AJ455" s="23"/>
+      <c r="AK455" s="23"/>
+      <c r="AL455" s="23"/>
+      <c r="AM455" s="23"/>
+      <c r="AN455" s="23"/>
+      <c r="AO455" s="23"/>
+      <c r="AP455" s="23"/>
+      <c r="AQ455" s="23"/>
+      <c r="AR455" s="23"/>
+      <c r="AS455" s="23"/>
+      <c r="AT455" s="23"/>
+      <c r="AU455" s="23"/>
+      <c r="AV455" s="23"/>
+      <c r="AW455" s="23"/>
+      <c r="AX455" s="23"/>
+      <c r="AY455" s="23"/>
+      <c r="AZ455" s="23"/>
+      <c r="BA455" s="23"/>
+      <c r="BB455" s="23"/>
+      <c r="BC455" s="23">
         <v>360.03100000000001</v>
       </c>
+      <c r="BD455" s="23"/>
+      <c r="BE455" s="23"/>
+      <c r="BF455" s="23"/>
+      <c r="BG455" s="23"/>
+      <c r="BH455" s="23"/>
+      <c r="BI455" s="23"/>
+      <c r="BJ455" s="23"/>
+      <c r="BK455" s="23"/>
+      <c r="BL455" s="23"/>
+      <c r="BM455" s="23"/>
+      <c r="BN455" s="23"/>
+      <c r="BO455" s="23"/>
+      <c r="BP455" s="23"/>
+      <c r="BQ455" s="23"/>
+      <c r="BR455" s="23"/>
       <c r="BT455" t="s">
         <v>91</v>
       </c>
@@ -28352,9 +29162,70 @@
       <c r="H456" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA456">
+      <c r="I456" s="23"/>
+      <c r="J456" s="23"/>
+      <c r="K456" s="23"/>
+      <c r="L456" s="23"/>
+      <c r="M456" s="23"/>
+      <c r="N456" s="23"/>
+      <c r="O456" s="23"/>
+      <c r="P456" s="23"/>
+      <c r="Q456" s="23"/>
+      <c r="R456" s="23"/>
+      <c r="S456" s="23"/>
+      <c r="T456" s="23"/>
+      <c r="U456" s="23"/>
+      <c r="V456" s="23"/>
+      <c r="W456" s="23"/>
+      <c r="X456" s="23"/>
+      <c r="Y456" s="23"/>
+      <c r="Z456" s="23"/>
+      <c r="AA456" s="23"/>
+      <c r="AB456" s="23"/>
+      <c r="AC456" s="23"/>
+      <c r="AD456" s="23"/>
+      <c r="AE456" s="23"/>
+      <c r="AF456" s="23"/>
+      <c r="AG456" s="23"/>
+      <c r="AH456" s="23"/>
+      <c r="AI456" s="23"/>
+      <c r="AJ456" s="23"/>
+      <c r="AK456" s="23"/>
+      <c r="AL456" s="23"/>
+      <c r="AM456" s="23"/>
+      <c r="AN456" s="23"/>
+      <c r="AO456" s="23"/>
+      <c r="AP456" s="23"/>
+      <c r="AQ456" s="23"/>
+      <c r="AR456" s="23"/>
+      <c r="AS456" s="23"/>
+      <c r="AT456" s="23"/>
+      <c r="AU456" s="23"/>
+      <c r="AV456" s="23"/>
+      <c r="AW456" s="23"/>
+      <c r="AX456" s="23"/>
+      <c r="AY456" s="23"/>
+      <c r="AZ456" s="23"/>
+      <c r="BA456" s="23"/>
+      <c r="BB456" s="23"/>
+      <c r="BC456" s="23">
         <v>1967.964727272727</v>
       </c>
+      <c r="BD456" s="23"/>
+      <c r="BE456" s="23"/>
+      <c r="BF456" s="23"/>
+      <c r="BG456" s="23"/>
+      <c r="BH456" s="23"/>
+      <c r="BI456" s="23"/>
+      <c r="BJ456" s="23"/>
+      <c r="BK456" s="23"/>
+      <c r="BL456" s="23"/>
+      <c r="BM456" s="23"/>
+      <c r="BN456" s="23"/>
+      <c r="BO456" s="23"/>
+      <c r="BP456" s="23"/>
+      <c r="BQ456" s="23"/>
+      <c r="BR456" s="23"/>
       <c r="BT456" t="s">
         <v>91</v>
       </c>
@@ -28375,9 +29246,70 @@
       <c r="H457" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA457">
+      <c r="I457" s="23"/>
+      <c r="J457" s="23"/>
+      <c r="K457" s="23"/>
+      <c r="L457" s="23"/>
+      <c r="M457" s="23"/>
+      <c r="N457" s="23"/>
+      <c r="O457" s="23"/>
+      <c r="P457" s="23"/>
+      <c r="Q457" s="23"/>
+      <c r="R457" s="23"/>
+      <c r="S457" s="23"/>
+      <c r="T457" s="23"/>
+      <c r="U457" s="23"/>
+      <c r="V457" s="23"/>
+      <c r="W457" s="23"/>
+      <c r="X457" s="23"/>
+      <c r="Y457" s="23"/>
+      <c r="Z457" s="23"/>
+      <c r="AA457" s="23"/>
+      <c r="AB457" s="23"/>
+      <c r="AC457" s="23"/>
+      <c r="AD457" s="23"/>
+      <c r="AE457" s="23"/>
+      <c r="AF457" s="23"/>
+      <c r="AG457" s="23"/>
+      <c r="AH457" s="23"/>
+      <c r="AI457" s="23"/>
+      <c r="AJ457" s="23"/>
+      <c r="AK457" s="23"/>
+      <c r="AL457" s="23"/>
+      <c r="AM457" s="23"/>
+      <c r="AN457" s="23"/>
+      <c r="AO457" s="23"/>
+      <c r="AP457" s="23"/>
+      <c r="AQ457" s="23"/>
+      <c r="AR457" s="23"/>
+      <c r="AS457" s="23"/>
+      <c r="AT457" s="23"/>
+      <c r="AU457" s="23"/>
+      <c r="AV457" s="23"/>
+      <c r="AW457" s="23"/>
+      <c r="AX457" s="23"/>
+      <c r="AY457" s="23"/>
+      <c r="AZ457" s="23"/>
+      <c r="BA457" s="23"/>
+      <c r="BB457" s="23"/>
+      <c r="BC457" s="23">
         <v>200</v>
       </c>
+      <c r="BD457" s="23"/>
+      <c r="BE457" s="23"/>
+      <c r="BF457" s="23"/>
+      <c r="BG457" s="23"/>
+      <c r="BH457" s="23"/>
+      <c r="BI457" s="23"/>
+      <c r="BJ457" s="23"/>
+      <c r="BK457" s="23"/>
+      <c r="BL457" s="23"/>
+      <c r="BM457" s="23"/>
+      <c r="BN457" s="23"/>
+      <c r="BO457" s="23"/>
+      <c r="BP457" s="23"/>
+      <c r="BQ457" s="23"/>
+      <c r="BR457" s="23"/>
       <c r="BT457" t="s">
         <v>92</v>
       </c>
@@ -28398,9 +29330,70 @@
       <c r="H458" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA458">
+      <c r="I458" s="23"/>
+      <c r="J458" s="23"/>
+      <c r="K458" s="23"/>
+      <c r="L458" s="23"/>
+      <c r="M458" s="23"/>
+      <c r="N458" s="23"/>
+      <c r="O458" s="23"/>
+      <c r="P458" s="23"/>
+      <c r="Q458" s="23"/>
+      <c r="R458" s="23"/>
+      <c r="S458" s="23"/>
+      <c r="T458" s="23"/>
+      <c r="U458" s="23"/>
+      <c r="V458" s="23"/>
+      <c r="W458" s="23"/>
+      <c r="X458" s="23"/>
+      <c r="Y458" s="23"/>
+      <c r="Z458" s="23"/>
+      <c r="AA458" s="23"/>
+      <c r="AB458" s="23"/>
+      <c r="AC458" s="23"/>
+      <c r="AD458" s="23"/>
+      <c r="AE458" s="23"/>
+      <c r="AF458" s="23"/>
+      <c r="AG458" s="23"/>
+      <c r="AH458" s="23"/>
+      <c r="AI458" s="23"/>
+      <c r="AJ458" s="23"/>
+      <c r="AK458" s="23"/>
+      <c r="AL458" s="23"/>
+      <c r="AM458" s="23"/>
+      <c r="AN458" s="23"/>
+      <c r="AO458" s="23"/>
+      <c r="AP458" s="23"/>
+      <c r="AQ458" s="23"/>
+      <c r="AR458" s="23"/>
+      <c r="AS458" s="23"/>
+      <c r="AT458" s="23"/>
+      <c r="AU458" s="23"/>
+      <c r="AV458" s="23"/>
+      <c r="AW458" s="23"/>
+      <c r="AX458" s="23"/>
+      <c r="AY458" s="23"/>
+      <c r="AZ458" s="23"/>
+      <c r="BA458" s="23"/>
+      <c r="BB458" s="23"/>
+      <c r="BC458" s="23">
         <v>357.43624999999997</v>
       </c>
+      <c r="BD458" s="23"/>
+      <c r="BE458" s="23"/>
+      <c r="BF458" s="23"/>
+      <c r="BG458" s="23"/>
+      <c r="BH458" s="23"/>
+      <c r="BI458" s="23"/>
+      <c r="BJ458" s="23"/>
+      <c r="BK458" s="23"/>
+      <c r="BL458" s="23"/>
+      <c r="BM458" s="23"/>
+      <c r="BN458" s="23"/>
+      <c r="BO458" s="23"/>
+      <c r="BP458" s="23"/>
+      <c r="BQ458" s="23"/>
+      <c r="BR458" s="23"/>
       <c r="BT458" t="s">
         <v>91</v>
       </c>
@@ -28421,9 +29414,70 @@
       <c r="H459" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA459">
+      <c r="I459" s="23"/>
+      <c r="J459" s="23"/>
+      <c r="K459" s="23"/>
+      <c r="L459" s="23"/>
+      <c r="M459" s="23"/>
+      <c r="N459" s="23"/>
+      <c r="O459" s="23"/>
+      <c r="P459" s="23"/>
+      <c r="Q459" s="23"/>
+      <c r="R459" s="23"/>
+      <c r="S459" s="23"/>
+      <c r="T459" s="23"/>
+      <c r="U459" s="23"/>
+      <c r="V459" s="23"/>
+      <c r="W459" s="23"/>
+      <c r="X459" s="23"/>
+      <c r="Y459" s="23"/>
+      <c r="Z459" s="23"/>
+      <c r="AA459" s="23"/>
+      <c r="AB459" s="23"/>
+      <c r="AC459" s="23"/>
+      <c r="AD459" s="23"/>
+      <c r="AE459" s="23"/>
+      <c r="AF459" s="23"/>
+      <c r="AG459" s="23"/>
+      <c r="AH459" s="23"/>
+      <c r="AI459" s="23"/>
+      <c r="AJ459" s="23"/>
+      <c r="AK459" s="23"/>
+      <c r="AL459" s="23"/>
+      <c r="AM459" s="23"/>
+      <c r="AN459" s="23"/>
+      <c r="AO459" s="23"/>
+      <c r="AP459" s="23"/>
+      <c r="AQ459" s="23"/>
+      <c r="AR459" s="23"/>
+      <c r="AS459" s="23"/>
+      <c r="AT459" s="23"/>
+      <c r="AU459" s="23"/>
+      <c r="AV459" s="23"/>
+      <c r="AW459" s="23"/>
+      <c r="AX459" s="23"/>
+      <c r="AY459" s="23"/>
+      <c r="AZ459" s="23"/>
+      <c r="BA459" s="23"/>
+      <c r="BB459" s="23"/>
+      <c r="BC459" s="23">
         <v>142.48790049999999</v>
       </c>
+      <c r="BD459" s="23"/>
+      <c r="BE459" s="23"/>
+      <c r="BF459" s="23"/>
+      <c r="BG459" s="23"/>
+      <c r="BH459" s="23"/>
+      <c r="BI459" s="23"/>
+      <c r="BJ459" s="23"/>
+      <c r="BK459" s="23"/>
+      <c r="BL459" s="23"/>
+      <c r="BM459" s="23"/>
+      <c r="BN459" s="23"/>
+      <c r="BO459" s="23"/>
+      <c r="BP459" s="23"/>
+      <c r="BQ459" s="23"/>
+      <c r="BR459" s="23"/>
       <c r="BT459" t="s">
         <v>91</v>
       </c>
@@ -28444,9 +29498,70 @@
       <c r="H460" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA460">
+      <c r="I460" s="23"/>
+      <c r="J460" s="23"/>
+      <c r="K460" s="23"/>
+      <c r="L460" s="23"/>
+      <c r="M460" s="23"/>
+      <c r="N460" s="23"/>
+      <c r="O460" s="23"/>
+      <c r="P460" s="23"/>
+      <c r="Q460" s="23"/>
+      <c r="R460" s="23"/>
+      <c r="S460" s="23"/>
+      <c r="T460" s="23"/>
+      <c r="U460" s="23"/>
+      <c r="V460" s="23"/>
+      <c r="W460" s="23"/>
+      <c r="X460" s="23"/>
+      <c r="Y460" s="23"/>
+      <c r="Z460" s="23"/>
+      <c r="AA460" s="23"/>
+      <c r="AB460" s="23"/>
+      <c r="AC460" s="23"/>
+      <c r="AD460" s="23"/>
+      <c r="AE460" s="23"/>
+      <c r="AF460" s="23"/>
+      <c r="AG460" s="23"/>
+      <c r="AH460" s="23"/>
+      <c r="AI460" s="23"/>
+      <c r="AJ460" s="23"/>
+      <c r="AK460" s="23"/>
+      <c r="AL460" s="23"/>
+      <c r="AM460" s="23"/>
+      <c r="AN460" s="23"/>
+      <c r="AO460" s="23"/>
+      <c r="AP460" s="23"/>
+      <c r="AQ460" s="23"/>
+      <c r="AR460" s="23"/>
+      <c r="AS460" s="23"/>
+      <c r="AT460" s="23"/>
+      <c r="AU460" s="23"/>
+      <c r="AV460" s="23"/>
+      <c r="AW460" s="23"/>
+      <c r="AX460" s="23"/>
+      <c r="AY460" s="23"/>
+      <c r="AZ460" s="23"/>
+      <c r="BA460" s="23"/>
+      <c r="BB460" s="23"/>
+      <c r="BC460" s="23">
         <v>240.64950899999999</v>
       </c>
+      <c r="BD460" s="23"/>
+      <c r="BE460" s="23"/>
+      <c r="BF460" s="23"/>
+      <c r="BG460" s="23"/>
+      <c r="BH460" s="23"/>
+      <c r="BI460" s="23"/>
+      <c r="BJ460" s="23"/>
+      <c r="BK460" s="23"/>
+      <c r="BL460" s="23"/>
+      <c r="BM460" s="23"/>
+      <c r="BN460" s="23"/>
+      <c r="BO460" s="23"/>
+      <c r="BP460" s="23"/>
+      <c r="BQ460" s="23"/>
+      <c r="BR460" s="23"/>
       <c r="BT460" t="s">
         <v>91</v>
       </c>
@@ -28467,9 +29582,70 @@
       <c r="H461" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA461">
-        <v>0</v>
-      </c>
+      <c r="I461" s="23"/>
+      <c r="J461" s="23"/>
+      <c r="K461" s="23"/>
+      <c r="L461" s="23"/>
+      <c r="M461" s="23"/>
+      <c r="N461" s="23"/>
+      <c r="O461" s="23"/>
+      <c r="P461" s="23"/>
+      <c r="Q461" s="23"/>
+      <c r="R461" s="23"/>
+      <c r="S461" s="23"/>
+      <c r="T461" s="23"/>
+      <c r="U461" s="23"/>
+      <c r="V461" s="23"/>
+      <c r="W461" s="23"/>
+      <c r="X461" s="23"/>
+      <c r="Y461" s="23"/>
+      <c r="Z461" s="23"/>
+      <c r="AA461" s="23"/>
+      <c r="AB461" s="23"/>
+      <c r="AC461" s="23"/>
+      <c r="AD461" s="23"/>
+      <c r="AE461" s="23"/>
+      <c r="AF461" s="23"/>
+      <c r="AG461" s="23"/>
+      <c r="AH461" s="23"/>
+      <c r="AI461" s="23"/>
+      <c r="AJ461" s="23"/>
+      <c r="AK461" s="23"/>
+      <c r="AL461" s="23"/>
+      <c r="AM461" s="23"/>
+      <c r="AN461" s="23"/>
+      <c r="AO461" s="23"/>
+      <c r="AP461" s="23"/>
+      <c r="AQ461" s="23"/>
+      <c r="AR461" s="23"/>
+      <c r="AS461" s="23"/>
+      <c r="AT461" s="23"/>
+      <c r="AU461" s="23"/>
+      <c r="AV461" s="23"/>
+      <c r="AW461" s="23"/>
+      <c r="AX461" s="23"/>
+      <c r="AY461" s="23"/>
+      <c r="AZ461" s="23"/>
+      <c r="BA461" s="23"/>
+      <c r="BB461" s="23"/>
+      <c r="BC461" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD461" s="23"/>
+      <c r="BE461" s="23"/>
+      <c r="BF461" s="23"/>
+      <c r="BG461" s="23"/>
+      <c r="BH461" s="23"/>
+      <c r="BI461" s="23"/>
+      <c r="BJ461" s="23"/>
+      <c r="BK461" s="23"/>
+      <c r="BL461" s="23"/>
+      <c r="BM461" s="23"/>
+      <c r="BN461" s="23"/>
+      <c r="BO461" s="23"/>
+      <c r="BP461" s="23"/>
+      <c r="BQ461" s="23"/>
+      <c r="BR461" s="23"/>
       <c r="BT461" t="s">
         <v>91</v>
       </c>
@@ -28490,9 +29666,70 @@
       <c r="H462" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA462">
+      <c r="I462" s="23"/>
+      <c r="J462" s="23"/>
+      <c r="K462" s="23"/>
+      <c r="L462" s="23"/>
+      <c r="M462" s="23"/>
+      <c r="N462" s="23"/>
+      <c r="O462" s="23"/>
+      <c r="P462" s="23"/>
+      <c r="Q462" s="23"/>
+      <c r="R462" s="23"/>
+      <c r="S462" s="23"/>
+      <c r="T462" s="23"/>
+      <c r="U462" s="23"/>
+      <c r="V462" s="23"/>
+      <c r="W462" s="23"/>
+      <c r="X462" s="23"/>
+      <c r="Y462" s="23"/>
+      <c r="Z462" s="23"/>
+      <c r="AA462" s="23"/>
+      <c r="AB462" s="23"/>
+      <c r="AC462" s="23"/>
+      <c r="AD462" s="23"/>
+      <c r="AE462" s="23"/>
+      <c r="AF462" s="23"/>
+      <c r="AG462" s="23"/>
+      <c r="AH462" s="23"/>
+      <c r="AI462" s="23"/>
+      <c r="AJ462" s="23"/>
+      <c r="AK462" s="23"/>
+      <c r="AL462" s="23"/>
+      <c r="AM462" s="23"/>
+      <c r="AN462" s="23"/>
+      <c r="AO462" s="23"/>
+      <c r="AP462" s="23"/>
+      <c r="AQ462" s="23"/>
+      <c r="AR462" s="23"/>
+      <c r="AS462" s="23"/>
+      <c r="AT462" s="23"/>
+      <c r="AU462" s="23"/>
+      <c r="AV462" s="23"/>
+      <c r="AW462" s="23"/>
+      <c r="AX462" s="23"/>
+      <c r="AY462" s="23"/>
+      <c r="AZ462" s="23"/>
+      <c r="BA462" s="23"/>
+      <c r="BB462" s="23"/>
+      <c r="BC462" s="23">
         <v>33.812517249999999</v>
       </c>
+      <c r="BD462" s="23"/>
+      <c r="BE462" s="23"/>
+      <c r="BF462" s="23"/>
+      <c r="BG462" s="23"/>
+      <c r="BH462" s="23"/>
+      <c r="BI462" s="23"/>
+      <c r="BJ462" s="23"/>
+      <c r="BK462" s="23"/>
+      <c r="BL462" s="23"/>
+      <c r="BM462" s="23"/>
+      <c r="BN462" s="23"/>
+      <c r="BO462" s="23"/>
+      <c r="BP462" s="23"/>
+      <c r="BQ462" s="23"/>
+      <c r="BR462" s="23"/>
       <c r="BT462" t="s">
         <v>91</v>
       </c>
@@ -28513,9 +29750,70 @@
       <c r="H463" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA463">
+      <c r="I463" s="23"/>
+      <c r="J463" s="23"/>
+      <c r="K463" s="23"/>
+      <c r="L463" s="23"/>
+      <c r="M463" s="23"/>
+      <c r="N463" s="23"/>
+      <c r="O463" s="23"/>
+      <c r="P463" s="23"/>
+      <c r="Q463" s="23"/>
+      <c r="R463" s="23"/>
+      <c r="S463" s="23"/>
+      <c r="T463" s="23"/>
+      <c r="U463" s="23"/>
+      <c r="V463" s="23"/>
+      <c r="W463" s="23"/>
+      <c r="X463" s="23"/>
+      <c r="Y463" s="23"/>
+      <c r="Z463" s="23"/>
+      <c r="AA463" s="23"/>
+      <c r="AB463" s="23"/>
+      <c r="AC463" s="23"/>
+      <c r="AD463" s="23"/>
+      <c r="AE463" s="23"/>
+      <c r="AF463" s="23"/>
+      <c r="AG463" s="23"/>
+      <c r="AH463" s="23"/>
+      <c r="AI463" s="23"/>
+      <c r="AJ463" s="23"/>
+      <c r="AK463" s="23"/>
+      <c r="AL463" s="23"/>
+      <c r="AM463" s="23"/>
+      <c r="AN463" s="23"/>
+      <c r="AO463" s="23"/>
+      <c r="AP463" s="23"/>
+      <c r="AQ463" s="23"/>
+      <c r="AR463" s="23"/>
+      <c r="AS463" s="23"/>
+      <c r="AT463" s="23"/>
+      <c r="AU463" s="23"/>
+      <c r="AV463" s="23"/>
+      <c r="AW463" s="23"/>
+      <c r="AX463" s="23"/>
+      <c r="AY463" s="23"/>
+      <c r="AZ463" s="23"/>
+      <c r="BA463" s="23"/>
+      <c r="BB463" s="23"/>
+      <c r="BC463" s="23">
         <v>168</v>
       </c>
+      <c r="BD463" s="23"/>
+      <c r="BE463" s="23"/>
+      <c r="BF463" s="23"/>
+      <c r="BG463" s="23"/>
+      <c r="BH463" s="23"/>
+      <c r="BI463" s="23"/>
+      <c r="BJ463" s="23"/>
+      <c r="BK463" s="23"/>
+      <c r="BL463" s="23"/>
+      <c r="BM463" s="23"/>
+      <c r="BN463" s="23"/>
+      <c r="BO463" s="23"/>
+      <c r="BP463" s="23"/>
+      <c r="BQ463" s="23"/>
+      <c r="BR463" s="23"/>
       <c r="BT463" t="s">
         <v>92</v>
       </c>
@@ -28536,9 +29834,70 @@
       <c r="H464" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA464">
+      <c r="I464" s="23"/>
+      <c r="J464" s="23"/>
+      <c r="K464" s="23"/>
+      <c r="L464" s="23"/>
+      <c r="M464" s="23"/>
+      <c r="N464" s="23"/>
+      <c r="O464" s="23"/>
+      <c r="P464" s="23"/>
+      <c r="Q464" s="23"/>
+      <c r="R464" s="23"/>
+      <c r="S464" s="23"/>
+      <c r="T464" s="23"/>
+      <c r="U464" s="23"/>
+      <c r="V464" s="23"/>
+      <c r="W464" s="23"/>
+      <c r="X464" s="23"/>
+      <c r="Y464" s="23"/>
+      <c r="Z464" s="23"/>
+      <c r="AA464" s="23"/>
+      <c r="AB464" s="23"/>
+      <c r="AC464" s="23"/>
+      <c r="AD464" s="23"/>
+      <c r="AE464" s="23"/>
+      <c r="AF464" s="23"/>
+      <c r="AG464" s="23"/>
+      <c r="AH464" s="23"/>
+      <c r="AI464" s="23"/>
+      <c r="AJ464" s="23"/>
+      <c r="AK464" s="23"/>
+      <c r="AL464" s="23"/>
+      <c r="AM464" s="23"/>
+      <c r="AN464" s="23"/>
+      <c r="AO464" s="23"/>
+      <c r="AP464" s="23"/>
+      <c r="AQ464" s="23"/>
+      <c r="AR464" s="23"/>
+      <c r="AS464" s="23"/>
+      <c r="AT464" s="23"/>
+      <c r="AU464" s="23"/>
+      <c r="AV464" s="23"/>
+      <c r="AW464" s="23"/>
+      <c r="AX464" s="23"/>
+      <c r="AY464" s="23"/>
+      <c r="AZ464" s="23"/>
+      <c r="BA464" s="23"/>
+      <c r="BB464" s="23"/>
+      <c r="BC464" s="23">
         <v>267.88209999999998</v>
       </c>
+      <c r="BD464" s="23"/>
+      <c r="BE464" s="23"/>
+      <c r="BF464" s="23"/>
+      <c r="BG464" s="23"/>
+      <c r="BH464" s="23"/>
+      <c r="BI464" s="23"/>
+      <c r="BJ464" s="23"/>
+      <c r="BK464" s="23"/>
+      <c r="BL464" s="23"/>
+      <c r="BM464" s="23"/>
+      <c r="BN464" s="23"/>
+      <c r="BO464" s="23"/>
+      <c r="BP464" s="23"/>
+      <c r="BQ464" s="23"/>
+      <c r="BR464" s="23"/>
       <c r="BT464" t="s">
         <v>91</v>
       </c>
@@ -28559,9 +29918,70 @@
       <c r="H465" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA465">
-        <v>0</v>
-      </c>
+      <c r="I465" s="23"/>
+      <c r="J465" s="23"/>
+      <c r="K465" s="23"/>
+      <c r="L465" s="23"/>
+      <c r="M465" s="23"/>
+      <c r="N465" s="23"/>
+      <c r="O465" s="23"/>
+      <c r="P465" s="23"/>
+      <c r="Q465" s="23"/>
+      <c r="R465" s="23"/>
+      <c r="S465" s="23"/>
+      <c r="T465" s="23"/>
+      <c r="U465" s="23"/>
+      <c r="V465" s="23"/>
+      <c r="W465" s="23"/>
+      <c r="X465" s="23"/>
+      <c r="Y465" s="23"/>
+      <c r="Z465" s="23"/>
+      <c r="AA465" s="23"/>
+      <c r="AB465" s="23"/>
+      <c r="AC465" s="23"/>
+      <c r="AD465" s="23"/>
+      <c r="AE465" s="23"/>
+      <c r="AF465" s="23"/>
+      <c r="AG465" s="23"/>
+      <c r="AH465" s="23"/>
+      <c r="AI465" s="23"/>
+      <c r="AJ465" s="23"/>
+      <c r="AK465" s="23"/>
+      <c r="AL465" s="23"/>
+      <c r="AM465" s="23"/>
+      <c r="AN465" s="23"/>
+      <c r="AO465" s="23"/>
+      <c r="AP465" s="23"/>
+      <c r="AQ465" s="23"/>
+      <c r="AR465" s="23"/>
+      <c r="AS465" s="23"/>
+      <c r="AT465" s="23"/>
+      <c r="AU465" s="23"/>
+      <c r="AV465" s="23"/>
+      <c r="AW465" s="23"/>
+      <c r="AX465" s="23"/>
+      <c r="AY465" s="23"/>
+      <c r="AZ465" s="23"/>
+      <c r="BA465" s="23"/>
+      <c r="BB465" s="23"/>
+      <c r="BC465" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD465" s="23"/>
+      <c r="BE465" s="23"/>
+      <c r="BF465" s="23"/>
+      <c r="BG465" s="23"/>
+      <c r="BH465" s="23"/>
+      <c r="BI465" s="23"/>
+      <c r="BJ465" s="23"/>
+      <c r="BK465" s="23"/>
+      <c r="BL465" s="23"/>
+      <c r="BM465" s="23"/>
+      <c r="BN465" s="23"/>
+      <c r="BO465" s="23"/>
+      <c r="BP465" s="23"/>
+      <c r="BQ465" s="23"/>
+      <c r="BR465" s="23"/>
       <c r="BT465" t="s">
         <v>91</v>
       </c>
@@ -28582,9 +30002,70 @@
       <c r="H466" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA466">
+      <c r="I466" s="23"/>
+      <c r="J466" s="23"/>
+      <c r="K466" s="23"/>
+      <c r="L466" s="23"/>
+      <c r="M466" s="23"/>
+      <c r="N466" s="23"/>
+      <c r="O466" s="23"/>
+      <c r="P466" s="23"/>
+      <c r="Q466" s="23"/>
+      <c r="R466" s="23"/>
+      <c r="S466" s="23"/>
+      <c r="T466" s="23"/>
+      <c r="U466" s="23"/>
+      <c r="V466" s="23"/>
+      <c r="W466" s="23"/>
+      <c r="X466" s="23"/>
+      <c r="Y466" s="23"/>
+      <c r="Z466" s="23"/>
+      <c r="AA466" s="23"/>
+      <c r="AB466" s="23"/>
+      <c r="AC466" s="23"/>
+      <c r="AD466" s="23"/>
+      <c r="AE466" s="23"/>
+      <c r="AF466" s="23"/>
+      <c r="AG466" s="23"/>
+      <c r="AH466" s="23"/>
+      <c r="AI466" s="23"/>
+      <c r="AJ466" s="23"/>
+      <c r="AK466" s="23"/>
+      <c r="AL466" s="23"/>
+      <c r="AM466" s="23"/>
+      <c r="AN466" s="23"/>
+      <c r="AO466" s="23"/>
+      <c r="AP466" s="23"/>
+      <c r="AQ466" s="23"/>
+      <c r="AR466" s="23"/>
+      <c r="AS466" s="23"/>
+      <c r="AT466" s="23"/>
+      <c r="AU466" s="23"/>
+      <c r="AV466" s="23"/>
+      <c r="AW466" s="23"/>
+      <c r="AX466" s="23"/>
+      <c r="AY466" s="23"/>
+      <c r="AZ466" s="23"/>
+      <c r="BA466" s="23"/>
+      <c r="BB466" s="23"/>
+      <c r="BC466" s="23">
         <v>175.26033333333331</v>
       </c>
+      <c r="BD466" s="23"/>
+      <c r="BE466" s="23"/>
+      <c r="BF466" s="23"/>
+      <c r="BG466" s="23"/>
+      <c r="BH466" s="23"/>
+      <c r="BI466" s="23"/>
+      <c r="BJ466" s="23"/>
+      <c r="BK466" s="23"/>
+      <c r="BL466" s="23"/>
+      <c r="BM466" s="23"/>
+      <c r="BN466" s="23"/>
+      <c r="BO466" s="23"/>
+      <c r="BP466" s="23"/>
+      <c r="BQ466" s="23"/>
+      <c r="BR466" s="23"/>
       <c r="BT466" t="s">
         <v>91</v>
       </c>
@@ -28605,9 +30086,70 @@
       <c r="H467" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA467">
-        <v>0</v>
-      </c>
+      <c r="I467" s="23"/>
+      <c r="J467" s="23"/>
+      <c r="K467" s="23"/>
+      <c r="L467" s="23"/>
+      <c r="M467" s="23"/>
+      <c r="N467" s="23"/>
+      <c r="O467" s="23"/>
+      <c r="P467" s="23"/>
+      <c r="Q467" s="23"/>
+      <c r="R467" s="23"/>
+      <c r="S467" s="23"/>
+      <c r="T467" s="23"/>
+      <c r="U467" s="23"/>
+      <c r="V467" s="23"/>
+      <c r="W467" s="23"/>
+      <c r="X467" s="23"/>
+      <c r="Y467" s="23"/>
+      <c r="Z467" s="23"/>
+      <c r="AA467" s="23"/>
+      <c r="AB467" s="23"/>
+      <c r="AC467" s="23"/>
+      <c r="AD467" s="23"/>
+      <c r="AE467" s="23"/>
+      <c r="AF467" s="23"/>
+      <c r="AG467" s="23"/>
+      <c r="AH467" s="23"/>
+      <c r="AI467" s="23"/>
+      <c r="AJ467" s="23"/>
+      <c r="AK467" s="23"/>
+      <c r="AL467" s="23"/>
+      <c r="AM467" s="23"/>
+      <c r="AN467" s="23"/>
+      <c r="AO467" s="23"/>
+      <c r="AP467" s="23"/>
+      <c r="AQ467" s="23"/>
+      <c r="AR467" s="23"/>
+      <c r="AS467" s="23"/>
+      <c r="AT467" s="23"/>
+      <c r="AU467" s="23"/>
+      <c r="AV467" s="23"/>
+      <c r="AW467" s="23"/>
+      <c r="AX467" s="23"/>
+      <c r="AY467" s="23"/>
+      <c r="AZ467" s="23"/>
+      <c r="BA467" s="23"/>
+      <c r="BB467" s="23"/>
+      <c r="BC467" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD467" s="23"/>
+      <c r="BE467" s="23"/>
+      <c r="BF467" s="23"/>
+      <c r="BG467" s="23"/>
+      <c r="BH467" s="23"/>
+      <c r="BI467" s="23"/>
+      <c r="BJ467" s="23"/>
+      <c r="BK467" s="23"/>
+      <c r="BL467" s="23"/>
+      <c r="BM467" s="23"/>
+      <c r="BN467" s="23"/>
+      <c r="BO467" s="23"/>
+      <c r="BP467" s="23"/>
+      <c r="BQ467" s="23"/>
+      <c r="BR467" s="23"/>
       <c r="BT467" t="s">
         <v>91</v>
       </c>
@@ -28628,9 +30170,70 @@
       <c r="H468" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA468">
+      <c r="I468" s="23"/>
+      <c r="J468" s="23"/>
+      <c r="K468" s="23"/>
+      <c r="L468" s="23"/>
+      <c r="M468" s="23"/>
+      <c r="N468" s="23"/>
+      <c r="O468" s="23"/>
+      <c r="P468" s="23"/>
+      <c r="Q468" s="23"/>
+      <c r="R468" s="23"/>
+      <c r="S468" s="23"/>
+      <c r="T468" s="23"/>
+      <c r="U468" s="23"/>
+      <c r="V468" s="23"/>
+      <c r="W468" s="23"/>
+      <c r="X468" s="23"/>
+      <c r="Y468" s="23"/>
+      <c r="Z468" s="23"/>
+      <c r="AA468" s="23"/>
+      <c r="AB468" s="23"/>
+      <c r="AC468" s="23"/>
+      <c r="AD468" s="23"/>
+      <c r="AE468" s="23"/>
+      <c r="AF468" s="23"/>
+      <c r="AG468" s="23"/>
+      <c r="AH468" s="23"/>
+      <c r="AI468" s="23"/>
+      <c r="AJ468" s="23"/>
+      <c r="AK468" s="23"/>
+      <c r="AL468" s="23"/>
+      <c r="AM468" s="23"/>
+      <c r="AN468" s="23"/>
+      <c r="AO468" s="23"/>
+      <c r="AP468" s="23"/>
+      <c r="AQ468" s="23"/>
+      <c r="AR468" s="23"/>
+      <c r="AS468" s="23"/>
+      <c r="AT468" s="23"/>
+      <c r="AU468" s="23"/>
+      <c r="AV468" s="23"/>
+      <c r="AW468" s="23"/>
+      <c r="AX468" s="23"/>
+      <c r="AY468" s="23"/>
+      <c r="AZ468" s="23"/>
+      <c r="BA468" s="23"/>
+      <c r="BB468" s="23"/>
+      <c r="BC468" s="23">
         <v>95.5</v>
       </c>
+      <c r="BD468" s="23"/>
+      <c r="BE468" s="23"/>
+      <c r="BF468" s="23"/>
+      <c r="BG468" s="23"/>
+      <c r="BH468" s="23"/>
+      <c r="BI468" s="23"/>
+      <c r="BJ468" s="23"/>
+      <c r="BK468" s="23"/>
+      <c r="BL468" s="23"/>
+      <c r="BM468" s="23"/>
+      <c r="BN468" s="23"/>
+      <c r="BO468" s="23"/>
+      <c r="BP468" s="23"/>
+      <c r="BQ468" s="23"/>
+      <c r="BR468" s="23"/>
       <c r="BT468" t="s">
         <v>91</v>
       </c>
@@ -28651,9 +30254,70 @@
       <c r="H469" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA469">
-        <v>0</v>
-      </c>
+      <c r="I469" s="23"/>
+      <c r="J469" s="23"/>
+      <c r="K469" s="23"/>
+      <c r="L469" s="23"/>
+      <c r="M469" s="23"/>
+      <c r="N469" s="23"/>
+      <c r="O469" s="23"/>
+      <c r="P469" s="23"/>
+      <c r="Q469" s="23"/>
+      <c r="R469" s="23"/>
+      <c r="S469" s="23"/>
+      <c r="T469" s="23"/>
+      <c r="U469" s="23"/>
+      <c r="V469" s="23"/>
+      <c r="W469" s="23"/>
+      <c r="X469" s="23"/>
+      <c r="Y469" s="23"/>
+      <c r="Z469" s="23"/>
+      <c r="AA469" s="23"/>
+      <c r="AB469" s="23"/>
+      <c r="AC469" s="23"/>
+      <c r="AD469" s="23"/>
+      <c r="AE469" s="23"/>
+      <c r="AF469" s="23"/>
+      <c r="AG469" s="23"/>
+      <c r="AH469" s="23"/>
+      <c r="AI469" s="23"/>
+      <c r="AJ469" s="23"/>
+      <c r="AK469" s="23"/>
+      <c r="AL469" s="23"/>
+      <c r="AM469" s="23"/>
+      <c r="AN469" s="23"/>
+      <c r="AO469" s="23"/>
+      <c r="AP469" s="23"/>
+      <c r="AQ469" s="23"/>
+      <c r="AR469" s="23"/>
+      <c r="AS469" s="23"/>
+      <c r="AT469" s="23"/>
+      <c r="AU469" s="23"/>
+      <c r="AV469" s="23"/>
+      <c r="AW469" s="23"/>
+      <c r="AX469" s="23"/>
+      <c r="AY469" s="23"/>
+      <c r="AZ469" s="23"/>
+      <c r="BA469" s="23"/>
+      <c r="BB469" s="23"/>
+      <c r="BC469" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD469" s="23"/>
+      <c r="BE469" s="23"/>
+      <c r="BF469" s="23"/>
+      <c r="BG469" s="23"/>
+      <c r="BH469" s="23"/>
+      <c r="BI469" s="23"/>
+      <c r="BJ469" s="23"/>
+      <c r="BK469" s="23"/>
+      <c r="BL469" s="23"/>
+      <c r="BM469" s="23"/>
+      <c r="BN469" s="23"/>
+      <c r="BO469" s="23"/>
+      <c r="BP469" s="23"/>
+      <c r="BQ469" s="23"/>
+      <c r="BR469" s="23"/>
       <c r="BT469" t="s">
         <v>91</v>
       </c>
@@ -28674,9 +30338,70 @@
       <c r="H470" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA470">
-        <v>0</v>
-      </c>
+      <c r="I470" s="23"/>
+      <c r="J470" s="23"/>
+      <c r="K470" s="23"/>
+      <c r="L470" s="23"/>
+      <c r="M470" s="23"/>
+      <c r="N470" s="23"/>
+      <c r="O470" s="23"/>
+      <c r="P470" s="23"/>
+      <c r="Q470" s="23"/>
+      <c r="R470" s="23"/>
+      <c r="S470" s="23"/>
+      <c r="T470" s="23"/>
+      <c r="U470" s="23"/>
+      <c r="V470" s="23"/>
+      <c r="W470" s="23"/>
+      <c r="X470" s="23"/>
+      <c r="Y470" s="23"/>
+      <c r="Z470" s="23"/>
+      <c r="AA470" s="23"/>
+      <c r="AB470" s="23"/>
+      <c r="AC470" s="23"/>
+      <c r="AD470" s="23"/>
+      <c r="AE470" s="23"/>
+      <c r="AF470" s="23"/>
+      <c r="AG470" s="23"/>
+      <c r="AH470" s="23"/>
+      <c r="AI470" s="23"/>
+      <c r="AJ470" s="23"/>
+      <c r="AK470" s="23"/>
+      <c r="AL470" s="23"/>
+      <c r="AM470" s="23"/>
+      <c r="AN470" s="23"/>
+      <c r="AO470" s="23"/>
+      <c r="AP470" s="23"/>
+      <c r="AQ470" s="23"/>
+      <c r="AR470" s="23"/>
+      <c r="AS470" s="23"/>
+      <c r="AT470" s="23"/>
+      <c r="AU470" s="23"/>
+      <c r="AV470" s="23"/>
+      <c r="AW470" s="23"/>
+      <c r="AX470" s="23"/>
+      <c r="AY470" s="23"/>
+      <c r="AZ470" s="23"/>
+      <c r="BA470" s="23"/>
+      <c r="BB470" s="23"/>
+      <c r="BC470" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD470" s="23"/>
+      <c r="BE470" s="23"/>
+      <c r="BF470" s="23"/>
+      <c r="BG470" s="23"/>
+      <c r="BH470" s="23"/>
+      <c r="BI470" s="23"/>
+      <c r="BJ470" s="23"/>
+      <c r="BK470" s="23"/>
+      <c r="BL470" s="23"/>
+      <c r="BM470" s="23"/>
+      <c r="BN470" s="23"/>
+      <c r="BO470" s="23"/>
+      <c r="BP470" s="23"/>
+      <c r="BQ470" s="23"/>
+      <c r="BR470" s="23"/>
       <c r="BT470" t="s">
         <v>91</v>
       </c>
@@ -28697,9 +30422,70 @@
       <c r="H471" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA471">
+      <c r="I471" s="23"/>
+      <c r="J471" s="23"/>
+      <c r="K471" s="23"/>
+      <c r="L471" s="23"/>
+      <c r="M471" s="23"/>
+      <c r="N471" s="23"/>
+      <c r="O471" s="23"/>
+      <c r="P471" s="23"/>
+      <c r="Q471" s="23"/>
+      <c r="R471" s="23"/>
+      <c r="S471" s="23"/>
+      <c r="T471" s="23"/>
+      <c r="U471" s="23"/>
+      <c r="V471" s="23"/>
+      <c r="W471" s="23"/>
+      <c r="X471" s="23"/>
+      <c r="Y471" s="23"/>
+      <c r="Z471" s="23"/>
+      <c r="AA471" s="23"/>
+      <c r="AB471" s="23"/>
+      <c r="AC471" s="23"/>
+      <c r="AD471" s="23"/>
+      <c r="AE471" s="23"/>
+      <c r="AF471" s="23"/>
+      <c r="AG471" s="23"/>
+      <c r="AH471" s="23"/>
+      <c r="AI471" s="23"/>
+      <c r="AJ471" s="23"/>
+      <c r="AK471" s="23"/>
+      <c r="AL471" s="23"/>
+      <c r="AM471" s="23"/>
+      <c r="AN471" s="23"/>
+      <c r="AO471" s="23"/>
+      <c r="AP471" s="23"/>
+      <c r="AQ471" s="23"/>
+      <c r="AR471" s="23"/>
+      <c r="AS471" s="23"/>
+      <c r="AT471" s="23"/>
+      <c r="AU471" s="23"/>
+      <c r="AV471" s="23"/>
+      <c r="AW471" s="23"/>
+      <c r="AX471" s="23"/>
+      <c r="AY471" s="23"/>
+      <c r="AZ471" s="23"/>
+      <c r="BA471" s="23"/>
+      <c r="BB471" s="23"/>
+      <c r="BC471" s="23">
         <v>49.660763000000003</v>
       </c>
+      <c r="BD471" s="23"/>
+      <c r="BE471" s="23"/>
+      <c r="BF471" s="23"/>
+      <c r="BG471" s="23"/>
+      <c r="BH471" s="23"/>
+      <c r="BI471" s="23"/>
+      <c r="BJ471" s="23"/>
+      <c r="BK471" s="23"/>
+      <c r="BL471" s="23"/>
+      <c r="BM471" s="23"/>
+      <c r="BN471" s="23"/>
+      <c r="BO471" s="23"/>
+      <c r="BP471" s="23"/>
+      <c r="BQ471" s="23"/>
+      <c r="BR471" s="23"/>
       <c r="BT471" t="s">
         <v>91</v>
       </c>
@@ -28720,9 +30506,70 @@
       <c r="H472" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BA472">
-        <v>0</v>
-      </c>
+      <c r="I472" s="23"/>
+      <c r="J472" s="23"/>
+      <c r="K472" s="23"/>
+      <c r="L472" s="23"/>
+      <c r="M472" s="23"/>
+      <c r="N472" s="23"/>
+      <c r="O472" s="23"/>
+      <c r="P472" s="23"/>
+      <c r="Q472" s="23"/>
+      <c r="R472" s="23"/>
+      <c r="S472" s="23"/>
+      <c r="T472" s="23"/>
+      <c r="U472" s="23"/>
+      <c r="V472" s="23"/>
+      <c r="W472" s="23"/>
+      <c r="X472" s="23"/>
+      <c r="Y472" s="23"/>
+      <c r="Z472" s="23"/>
+      <c r="AA472" s="23"/>
+      <c r="AB472" s="23"/>
+      <c r="AC472" s="23"/>
+      <c r="AD472" s="23"/>
+      <c r="AE472" s="23"/>
+      <c r="AF472" s="23"/>
+      <c r="AG472" s="23"/>
+      <c r="AH472" s="23"/>
+      <c r="AI472" s="23"/>
+      <c r="AJ472" s="23"/>
+      <c r="AK472" s="23"/>
+      <c r="AL472" s="23"/>
+      <c r="AM472" s="23"/>
+      <c r="AN472" s="23"/>
+      <c r="AO472" s="23"/>
+      <c r="AP472" s="23"/>
+      <c r="AQ472" s="23"/>
+      <c r="AR472" s="23"/>
+      <c r="AS472" s="23"/>
+      <c r="AT472" s="23"/>
+      <c r="AU472" s="23"/>
+      <c r="AV472" s="23"/>
+      <c r="AW472" s="23"/>
+      <c r="AX472" s="23"/>
+      <c r="AY472" s="23"/>
+      <c r="AZ472" s="23"/>
+      <c r="BA472" s="23"/>
+      <c r="BB472" s="23"/>
+      <c r="BC472" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD472" s="23"/>
+      <c r="BE472" s="23"/>
+      <c r="BF472" s="23"/>
+      <c r="BG472" s="23"/>
+      <c r="BH472" s="23"/>
+      <c r="BI472" s="23"/>
+      <c r="BJ472" s="23"/>
+      <c r="BK472" s="23"/>
+      <c r="BL472" s="23"/>
+      <c r="BM472" s="23"/>
+      <c r="BN472" s="23"/>
+      <c r="BO472" s="23"/>
+      <c r="BP472" s="23"/>
+      <c r="BQ472" s="23"/>
+      <c r="BR472" s="23"/>
       <c r="BT472" t="s">
         <v>91</v>
       </c>
@@ -28746,9 +30593,70 @@
       <c r="H473" t="s">
         <v>83</v>
       </c>
-      <c r="BC473">
+      <c r="I473" s="23"/>
+      <c r="J473" s="23"/>
+      <c r="K473" s="23"/>
+      <c r="L473" s="23"/>
+      <c r="M473" s="23"/>
+      <c r="N473" s="23"/>
+      <c r="O473" s="23"/>
+      <c r="P473" s="23"/>
+      <c r="Q473" s="23"/>
+      <c r="R473" s="23"/>
+      <c r="S473" s="23"/>
+      <c r="T473" s="23"/>
+      <c r="U473" s="23"/>
+      <c r="V473" s="23"/>
+      <c r="W473" s="23"/>
+      <c r="X473" s="23"/>
+      <c r="Y473" s="23"/>
+      <c r="Z473" s="23"/>
+      <c r="AA473" s="23"/>
+      <c r="AB473" s="23"/>
+      <c r="AC473" s="23"/>
+      <c r="AD473" s="23"/>
+      <c r="AE473" s="23"/>
+      <c r="AF473" s="23"/>
+      <c r="AG473" s="23"/>
+      <c r="AH473" s="23"/>
+      <c r="AI473" s="23"/>
+      <c r="AJ473" s="23"/>
+      <c r="AK473" s="23"/>
+      <c r="AL473" s="23"/>
+      <c r="AM473" s="23"/>
+      <c r="AN473" s="23"/>
+      <c r="AO473" s="23"/>
+      <c r="AP473" s="23"/>
+      <c r="AQ473" s="23"/>
+      <c r="AR473" s="23"/>
+      <c r="AS473" s="23"/>
+      <c r="AT473" s="23"/>
+      <c r="AU473" s="23"/>
+      <c r="AV473" s="23"/>
+      <c r="AW473" s="23"/>
+      <c r="AX473" s="23"/>
+      <c r="AY473" s="23"/>
+      <c r="AZ473" s="23"/>
+      <c r="BA473" s="23"/>
+      <c r="BB473" s="23"/>
+      <c r="BC473" s="23">
         <v>100</v>
       </c>
+      <c r="BD473" s="23"/>
+      <c r="BE473" s="23"/>
+      <c r="BF473" s="23"/>
+      <c r="BG473" s="23"/>
+      <c r="BH473" s="23"/>
+      <c r="BI473" s="23"/>
+      <c r="BJ473" s="23"/>
+      <c r="BK473" s="23"/>
+      <c r="BL473" s="23"/>
+      <c r="BM473" s="23"/>
+      <c r="BN473" s="23"/>
+      <c r="BO473" s="23"/>
+      <c r="BP473" s="23"/>
+      <c r="BQ473" s="23"/>
+      <c r="BR473" s="23"/>
     </row>
     <row r="474" spans="1:72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
@@ -28769,9 +30677,70 @@
       <c r="H474" t="s">
         <v>83</v>
       </c>
-      <c r="BC474">
-        <v>0</v>
-      </c>
+      <c r="I474" s="23"/>
+      <c r="J474" s="23"/>
+      <c r="K474" s="23"/>
+      <c r="L474" s="23"/>
+      <c r="M474" s="23"/>
+      <c r="N474" s="23"/>
+      <c r="O474" s="23"/>
+      <c r="P474" s="23"/>
+      <c r="Q474" s="23"/>
+      <c r="R474" s="23"/>
+      <c r="S474" s="23"/>
+      <c r="T474" s="23"/>
+      <c r="U474" s="23"/>
+      <c r="V474" s="23"/>
+      <c r="W474" s="23"/>
+      <c r="X474" s="23"/>
+      <c r="Y474" s="23"/>
+      <c r="Z474" s="23"/>
+      <c r="AA474" s="23"/>
+      <c r="AB474" s="23"/>
+      <c r="AC474" s="23"/>
+      <c r="AD474" s="23"/>
+      <c r="AE474" s="23"/>
+      <c r="AF474" s="23"/>
+      <c r="AG474" s="23"/>
+      <c r="AH474" s="23"/>
+      <c r="AI474" s="23"/>
+      <c r="AJ474" s="23"/>
+      <c r="AK474" s="23"/>
+      <c r="AL474" s="23"/>
+      <c r="AM474" s="23"/>
+      <c r="AN474" s="23"/>
+      <c r="AO474" s="23"/>
+      <c r="AP474" s="23"/>
+      <c r="AQ474" s="23"/>
+      <c r="AR474" s="23"/>
+      <c r="AS474" s="23"/>
+      <c r="AT474" s="23"/>
+      <c r="AU474" s="23"/>
+      <c r="AV474" s="23"/>
+      <c r="AW474" s="23"/>
+      <c r="AX474" s="23"/>
+      <c r="AY474" s="23"/>
+      <c r="AZ474" s="23"/>
+      <c r="BA474" s="23"/>
+      <c r="BB474" s="23"/>
+      <c r="BC474" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD474" s="23"/>
+      <c r="BE474" s="23"/>
+      <c r="BF474" s="23"/>
+      <c r="BG474" s="23"/>
+      <c r="BH474" s="23"/>
+      <c r="BI474" s="23"/>
+      <c r="BJ474" s="23"/>
+      <c r="BK474" s="23"/>
+      <c r="BL474" s="23"/>
+      <c r="BM474" s="23"/>
+      <c r="BN474" s="23"/>
+      <c r="BO474" s="23"/>
+      <c r="BP474" s="23"/>
+      <c r="BQ474" s="23"/>
+      <c r="BR474" s="23"/>
     </row>
     <row r="475" spans="1:72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
@@ -29392,7 +31361,7 @@
       <c r="H505" t="s">
         <v>83</v>
       </c>
-      <c r="BC505">
+      <c r="BA505">
         <v>100</v>
       </c>
     </row>
@@ -29415,7 +31384,7 @@
       <c r="H506" t="s">
         <v>83</v>
       </c>
-      <c r="BC506">
+      <c r="BA506">
         <v>0</v>
       </c>
     </row>
@@ -53077,16 +55046,3005 @@
         <v>97</v>
       </c>
     </row>
+    <row r="815" spans="1:71" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>44</v>
+      </c>
+      <c r="B815" t="s">
+        <v>46</v>
+      </c>
+      <c r="C815" t="s">
+        <v>49</v>
+      </c>
+      <c r="D815" t="s">
+        <v>62</v>
+      </c>
+      <c r="K815">
+        <v>0</v>
+      </c>
+      <c r="L815">
+        <v>0</v>
+      </c>
+      <c r="M815">
+        <v>0</v>
+      </c>
+      <c r="N815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:71" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>44</v>
+      </c>
+      <c r="B816" t="s">
+        <v>46</v>
+      </c>
+      <c r="C816" t="s">
+        <v>50</v>
+      </c>
+      <c r="D816" t="s">
+        <v>62</v>
+      </c>
+      <c r="H816" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K816">
+        <v>0</v>
+      </c>
+      <c r="L816">
+        <v>0</v>
+      </c>
+      <c r="M816">
+        <v>0</v>
+      </c>
+      <c r="N816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>44</v>
+      </c>
+      <c r="B817" t="s">
+        <v>46</v>
+      </c>
+      <c r="C817" t="s">
+        <v>55</v>
+      </c>
+      <c r="D817" t="s">
+        <v>62</v>
+      </c>
+      <c r="K817">
+        <v>0</v>
+      </c>
+      <c r="L817">
+        <v>0</v>
+      </c>
+      <c r="M817">
+        <v>0</v>
+      </c>
+      <c r="N817">
+        <v>0</v>
+      </c>
+      <c r="BC817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>44</v>
+      </c>
+      <c r="B818" t="s">
+        <v>46</v>
+      </c>
+      <c r="C818" t="s">
+        <v>57</v>
+      </c>
+      <c r="D818" t="s">
+        <v>62</v>
+      </c>
+      <c r="I818" s="23"/>
+      <c r="J818" s="23"/>
+      <c r="K818" s="23">
+        <v>0</v>
+      </c>
+      <c r="L818" s="23">
+        <v>0</v>
+      </c>
+      <c r="M818" s="23">
+        <v>0</v>
+      </c>
+      <c r="N818" s="23">
+        <v>0</v>
+      </c>
+      <c r="O818" s="23"/>
+      <c r="P818" s="23"/>
+      <c r="Q818" s="23"/>
+      <c r="R818" s="23"/>
+      <c r="S818" s="23"/>
+      <c r="T818" s="23"/>
+      <c r="U818" s="23"/>
+      <c r="V818" s="23"/>
+      <c r="W818" s="23"/>
+      <c r="X818" s="23"/>
+      <c r="Y818" s="23"/>
+      <c r="Z818" s="23"/>
+      <c r="AA818" s="23"/>
+      <c r="AB818" s="23"/>
+      <c r="AC818" s="23"/>
+      <c r="AD818" s="23"/>
+      <c r="AE818" s="23"/>
+      <c r="AF818" s="23"/>
+      <c r="AG818" s="23"/>
+      <c r="AH818" s="23"/>
+      <c r="AI818" s="23"/>
+      <c r="AJ818" s="23"/>
+      <c r="AK818" s="23"/>
+      <c r="AL818" s="23"/>
+      <c r="AM818" s="23"/>
+      <c r="AN818" s="23"/>
+      <c r="AO818" s="23"/>
+      <c r="AP818" s="23"/>
+      <c r="AQ818" s="23"/>
+      <c r="AR818" s="23"/>
+      <c r="AS818" s="23"/>
+      <c r="AT818" s="23"/>
+      <c r="AU818" s="23"/>
+      <c r="AV818" s="23"/>
+      <c r="AW818" s="23"/>
+      <c r="AX818" s="23"/>
+      <c r="AY818" s="23"/>
+      <c r="AZ818" s="23"/>
+      <c r="BA818" s="23"/>
+      <c r="BB818" s="23"/>
+      <c r="BC818" s="23"/>
+      <c r="BD818" s="23"/>
+      <c r="BE818" s="23"/>
+      <c r="BF818" s="23"/>
+      <c r="BG818" s="23"/>
+      <c r="BH818" s="23"/>
+      <c r="BI818" s="23"/>
+      <c r="BJ818" s="23"/>
+      <c r="BK818" s="23"/>
+      <c r="BL818" s="23"/>
+      <c r="BM818" s="23"/>
+      <c r="BN818" s="23"/>
+      <c r="BO818" s="23"/>
+      <c r="BP818" s="23"/>
+      <c r="BQ818" s="23"/>
+      <c r="BR818" s="23"/>
+    </row>
+    <row r="819" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>44</v>
+      </c>
+      <c r="B819" t="s">
+        <v>46</v>
+      </c>
+      <c r="C819" t="s">
+        <v>58</v>
+      </c>
+      <c r="D819" t="s">
+        <v>62</v>
+      </c>
+      <c r="H819" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K819">
+        <v>0</v>
+      </c>
+      <c r="L819">
+        <v>0</v>
+      </c>
+      <c r="M819">
+        <v>0</v>
+      </c>
+      <c r="N819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>44</v>
+      </c>
+      <c r="B820" t="s">
+        <v>46</v>
+      </c>
+      <c r="C820" t="s">
+        <v>50</v>
+      </c>
+      <c r="D820" t="s">
+        <v>63</v>
+      </c>
+      <c r="E820" t="s">
+        <v>44</v>
+      </c>
+      <c r="F820" t="s">
+        <v>71</v>
+      </c>
+      <c r="H820" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA820">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>44</v>
+      </c>
+      <c r="B821" t="s">
+        <v>46</v>
+      </c>
+      <c r="C821" t="s">
+        <v>50</v>
+      </c>
+      <c r="D821" t="s">
+        <v>63</v>
+      </c>
+      <c r="E821" t="s">
+        <v>44</v>
+      </c>
+      <c r="F821" t="s">
+        <v>72</v>
+      </c>
+      <c r="H821" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>44</v>
+      </c>
+      <c r="B822" t="s">
+        <v>46</v>
+      </c>
+      <c r="C822" t="s">
+        <v>50</v>
+      </c>
+      <c r="D822" t="s">
+        <v>63</v>
+      </c>
+      <c r="E822" t="s">
+        <v>44</v>
+      </c>
+      <c r="F822" t="s">
+        <v>73</v>
+      </c>
+      <c r="G822" t="s">
+        <v>76</v>
+      </c>
+      <c r="H822" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA822">
+        <v>18.101667990468631</v>
+      </c>
+    </row>
+    <row r="823" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>44</v>
+      </c>
+      <c r="B823" t="s">
+        <v>46</v>
+      </c>
+      <c r="C823" t="s">
+        <v>50</v>
+      </c>
+      <c r="D823" t="s">
+        <v>63</v>
+      </c>
+      <c r="E823" t="s">
+        <v>44</v>
+      </c>
+      <c r="F823" t="s">
+        <v>73</v>
+      </c>
+      <c r="G823" t="s">
+        <v>77</v>
+      </c>
+      <c r="H823" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA823">
+        <v>5.8983320095313738</v>
+      </c>
+    </row>
+    <row r="824" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>44</v>
+      </c>
+      <c r="B824" t="s">
+        <v>46</v>
+      </c>
+      <c r="C824" t="s">
+        <v>50</v>
+      </c>
+      <c r="D824" t="s">
+        <v>63</v>
+      </c>
+      <c r="E824" t="s">
+        <v>44</v>
+      </c>
+      <c r="F824" t="s">
+        <v>73</v>
+      </c>
+      <c r="G824" t="s">
+        <v>78</v>
+      </c>
+      <c r="H824" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA824">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>44</v>
+      </c>
+      <c r="B825" t="s">
+        <v>46</v>
+      </c>
+      <c r="C825" t="s">
+        <v>50</v>
+      </c>
+      <c r="D825" t="s">
+        <v>63</v>
+      </c>
+      <c r="E825" t="s">
+        <v>44</v>
+      </c>
+      <c r="F825" t="s">
+        <v>73</v>
+      </c>
+      <c r="G825" t="s">
+        <v>79</v>
+      </c>
+      <c r="H825" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA825">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="826" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>44</v>
+      </c>
+      <c r="B826" t="s">
+        <v>46</v>
+      </c>
+      <c r="C826" t="s">
+        <v>50</v>
+      </c>
+      <c r="D826" t="s">
+        <v>63</v>
+      </c>
+      <c r="E826" t="s">
+        <v>44</v>
+      </c>
+      <c r="F826" t="s">
+        <v>73</v>
+      </c>
+      <c r="G826" t="s">
+        <v>80</v>
+      </c>
+      <c r="H826" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA826">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="827" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>44</v>
+      </c>
+      <c r="B827" t="s">
+        <v>46</v>
+      </c>
+      <c r="C827" t="s">
+        <v>50</v>
+      </c>
+      <c r="D827" t="s">
+        <v>63</v>
+      </c>
+      <c r="E827" t="s">
+        <v>44</v>
+      </c>
+      <c r="F827" t="s">
+        <v>73</v>
+      </c>
+      <c r="H827" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA827">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="828" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>44</v>
+      </c>
+      <c r="B828" t="s">
+        <v>46</v>
+      </c>
+      <c r="C828" t="s">
+        <v>50</v>
+      </c>
+      <c r="D828" t="s">
+        <v>63</v>
+      </c>
+      <c r="E828" t="s">
+        <v>44</v>
+      </c>
+      <c r="F828" t="s">
+        <v>74</v>
+      </c>
+      <c r="H828" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA828">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="829" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>44</v>
+      </c>
+      <c r="B829" t="s">
+        <v>46</v>
+      </c>
+      <c r="C829" t="s">
+        <v>50</v>
+      </c>
+      <c r="D829" t="s">
+        <v>63</v>
+      </c>
+      <c r="E829" t="s">
+        <v>44</v>
+      </c>
+      <c r="F829" t="s">
+        <v>75</v>
+      </c>
+      <c r="H829" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA829">
+        <v>55.470000000000013</v>
+      </c>
+    </row>
+    <row r="830" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>44</v>
+      </c>
+      <c r="B830" t="s">
+        <v>46</v>
+      </c>
+      <c r="C830" t="s">
+        <v>55</v>
+      </c>
+      <c r="D830" t="s">
+        <v>64</v>
+      </c>
+      <c r="E830" t="s">
+        <v>69</v>
+      </c>
+      <c r="H830" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>44</v>
+      </c>
+      <c r="B831" t="s">
+        <v>46</v>
+      </c>
+      <c r="C831" t="s">
+        <v>57</v>
+      </c>
+      <c r="D831" t="s">
+        <v>63</v>
+      </c>
+      <c r="E831" t="s">
+        <v>68</v>
+      </c>
+      <c r="F831" t="s">
+        <v>70</v>
+      </c>
+      <c r="H831" t="s">
+        <v>81</v>
+      </c>
+      <c r="I831" s="23"/>
+      <c r="J831" s="23"/>
+      <c r="K831" s="23"/>
+      <c r="L831" s="23"/>
+      <c r="M831" s="23"/>
+      <c r="N831" s="23"/>
+      <c r="O831" s="23"/>
+      <c r="P831" s="23"/>
+      <c r="Q831" s="23"/>
+      <c r="R831" s="23"/>
+      <c r="S831" s="23"/>
+      <c r="T831" s="23"/>
+      <c r="U831" s="23"/>
+      <c r="V831" s="23"/>
+      <c r="W831" s="23"/>
+      <c r="X831" s="23"/>
+      <c r="Y831" s="23"/>
+      <c r="Z831" s="23"/>
+      <c r="AA831" s="23"/>
+      <c r="AB831" s="23"/>
+      <c r="AC831" s="23"/>
+      <c r="AD831" s="23"/>
+      <c r="AE831" s="23"/>
+      <c r="AF831" s="23"/>
+      <c r="AG831" s="23"/>
+      <c r="AH831" s="23"/>
+      <c r="AI831" s="23"/>
+      <c r="AJ831" s="23"/>
+      <c r="AK831" s="23"/>
+      <c r="AL831" s="23"/>
+      <c r="AM831" s="23"/>
+      <c r="AN831" s="23"/>
+      <c r="AO831" s="23"/>
+      <c r="AP831" s="23"/>
+      <c r="AQ831" s="23"/>
+      <c r="AR831" s="23"/>
+      <c r="AS831" s="23"/>
+      <c r="AT831" s="23"/>
+      <c r="AU831" s="23"/>
+      <c r="AV831" s="23"/>
+      <c r="AW831" s="23"/>
+      <c r="AX831" s="23"/>
+      <c r="AY831" s="23"/>
+      <c r="AZ831" s="23"/>
+      <c r="BA831" s="23"/>
+      <c r="BB831" s="23"/>
+      <c r="BC831" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD831" s="23"/>
+      <c r="BE831" s="23"/>
+      <c r="BF831" s="23"/>
+      <c r="BG831" s="23"/>
+      <c r="BH831" s="23"/>
+      <c r="BI831" s="23"/>
+      <c r="BJ831" s="23"/>
+      <c r="BK831" s="23"/>
+      <c r="BL831" s="23"/>
+      <c r="BM831" s="23"/>
+      <c r="BN831" s="23"/>
+      <c r="BO831" s="23"/>
+      <c r="BP831" s="23"/>
+      <c r="BQ831" s="23"/>
+      <c r="BR831" s="23"/>
+    </row>
+    <row r="832" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>44</v>
+      </c>
+      <c r="B832" t="s">
+        <v>46</v>
+      </c>
+      <c r="C832" t="s">
+        <v>57</v>
+      </c>
+      <c r="D832" t="s">
+        <v>63</v>
+      </c>
+      <c r="E832" t="s">
+        <v>68</v>
+      </c>
+      <c r="F832" t="s">
+        <v>71</v>
+      </c>
+      <c r="H832" t="s">
+        <v>82</v>
+      </c>
+      <c r="I832" s="23"/>
+      <c r="J832" s="23"/>
+      <c r="K832" s="23"/>
+      <c r="L832" s="23"/>
+      <c r="M832" s="23"/>
+      <c r="N832" s="23"/>
+      <c r="O832" s="23"/>
+      <c r="P832" s="23"/>
+      <c r="Q832" s="23"/>
+      <c r="R832" s="23"/>
+      <c r="S832" s="23"/>
+      <c r="T832" s="23"/>
+      <c r="U832" s="23"/>
+      <c r="V832" s="23"/>
+      <c r="W832" s="23"/>
+      <c r="X832" s="23"/>
+      <c r="Y832" s="23"/>
+      <c r="Z832" s="23"/>
+      <c r="AA832" s="23"/>
+      <c r="AB832" s="23"/>
+      <c r="AC832" s="23"/>
+      <c r="AD832" s="23"/>
+      <c r="AE832" s="23"/>
+      <c r="AF832" s="23"/>
+      <c r="AG832" s="23"/>
+      <c r="AH832" s="23"/>
+      <c r="AI832" s="23"/>
+      <c r="AJ832" s="23"/>
+      <c r="AK832" s="23"/>
+      <c r="AL832" s="23"/>
+      <c r="AM832" s="23"/>
+      <c r="AN832" s="23"/>
+      <c r="AO832" s="23"/>
+      <c r="AP832" s="23"/>
+      <c r="AQ832" s="23"/>
+      <c r="AR832" s="23"/>
+      <c r="AS832" s="23"/>
+      <c r="AT832" s="23"/>
+      <c r="AU832" s="23"/>
+      <c r="AV832" s="23"/>
+      <c r="AW832" s="23"/>
+      <c r="AX832" s="23"/>
+      <c r="AY832" s="23"/>
+      <c r="AZ832" s="23"/>
+      <c r="BA832" s="23"/>
+      <c r="BB832" s="23"/>
+      <c r="BC832" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="BD832" s="23"/>
+      <c r="BE832" s="23"/>
+      <c r="BF832" s="23"/>
+      <c r="BG832" s="23"/>
+      <c r="BH832" s="23"/>
+      <c r="BI832" s="23"/>
+      <c r="BJ832" s="23"/>
+      <c r="BK832" s="23"/>
+      <c r="BL832" s="23"/>
+      <c r="BM832" s="23"/>
+      <c r="BN832" s="23"/>
+      <c r="BO832" s="23"/>
+      <c r="BP832" s="23"/>
+      <c r="BQ832" s="23"/>
+      <c r="BR832" s="23"/>
+    </row>
+    <row r="833" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>44</v>
+      </c>
+      <c r="B833" t="s">
+        <v>46</v>
+      </c>
+      <c r="C833" t="s">
+        <v>57</v>
+      </c>
+      <c r="D833" t="s">
+        <v>63</v>
+      </c>
+      <c r="E833" t="s">
+        <v>68</v>
+      </c>
+      <c r="F833" t="s">
+        <v>72</v>
+      </c>
+      <c r="H833" t="s">
+        <v>82</v>
+      </c>
+      <c r="I833" s="23"/>
+      <c r="J833" s="23"/>
+      <c r="K833" s="23"/>
+      <c r="L833" s="23"/>
+      <c r="M833" s="23"/>
+      <c r="N833" s="23"/>
+      <c r="O833" s="23"/>
+      <c r="P833" s="23"/>
+      <c r="Q833" s="23"/>
+      <c r="R833" s="23"/>
+      <c r="S833" s="23"/>
+      <c r="T833" s="23"/>
+      <c r="U833" s="23"/>
+      <c r="V833" s="23"/>
+      <c r="W833" s="23"/>
+      <c r="X833" s="23"/>
+      <c r="Y833" s="23"/>
+      <c r="Z833" s="23"/>
+      <c r="AA833" s="23"/>
+      <c r="AB833" s="23"/>
+      <c r="AC833" s="23"/>
+      <c r="AD833" s="23"/>
+      <c r="AE833" s="23"/>
+      <c r="AF833" s="23"/>
+      <c r="AG833" s="23"/>
+      <c r="AH833" s="23"/>
+      <c r="AI833" s="23"/>
+      <c r="AJ833" s="23"/>
+      <c r="AK833" s="23"/>
+      <c r="AL833" s="23"/>
+      <c r="AM833" s="23"/>
+      <c r="AN833" s="23"/>
+      <c r="AO833" s="23"/>
+      <c r="AP833" s="23"/>
+      <c r="AQ833" s="23"/>
+      <c r="AR833" s="23"/>
+      <c r="AS833" s="23"/>
+      <c r="AT833" s="23"/>
+      <c r="AU833" s="23"/>
+      <c r="AV833" s="23"/>
+      <c r="AW833" s="23"/>
+      <c r="AX833" s="23"/>
+      <c r="AY833" s="23"/>
+      <c r="AZ833" s="23"/>
+      <c r="BA833" s="23"/>
+      <c r="BB833" s="23"/>
+      <c r="BC833" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD833" s="23"/>
+      <c r="BE833" s="23"/>
+      <c r="BF833" s="23"/>
+      <c r="BG833" s="23"/>
+      <c r="BH833" s="23"/>
+      <c r="BI833" s="23"/>
+      <c r="BJ833" s="23"/>
+      <c r="BK833" s="23"/>
+      <c r="BL833" s="23"/>
+      <c r="BM833" s="23"/>
+      <c r="BN833" s="23"/>
+      <c r="BO833" s="23"/>
+      <c r="BP833" s="23"/>
+      <c r="BQ833" s="23"/>
+      <c r="BR833" s="23"/>
+    </row>
+    <row r="834" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>44</v>
+      </c>
+      <c r="B834" t="s">
+        <v>46</v>
+      </c>
+      <c r="C834" t="s">
+        <v>57</v>
+      </c>
+      <c r="D834" t="s">
+        <v>63</v>
+      </c>
+      <c r="E834" t="s">
+        <v>68</v>
+      </c>
+      <c r="F834" t="s">
+        <v>73</v>
+      </c>
+      <c r="G834" t="s">
+        <v>76</v>
+      </c>
+      <c r="H834" t="s">
+        <v>83</v>
+      </c>
+      <c r="I834" s="23"/>
+      <c r="J834" s="23"/>
+      <c r="K834" s="23"/>
+      <c r="L834" s="23"/>
+      <c r="M834" s="23"/>
+      <c r="N834" s="23"/>
+      <c r="O834" s="23"/>
+      <c r="P834" s="23"/>
+      <c r="Q834" s="23"/>
+      <c r="R834" s="23"/>
+      <c r="S834" s="23"/>
+      <c r="T834" s="23"/>
+      <c r="U834" s="23"/>
+      <c r="V834" s="23"/>
+      <c r="W834" s="23"/>
+      <c r="X834" s="23"/>
+      <c r="Y834" s="23"/>
+      <c r="Z834" s="23"/>
+      <c r="AA834" s="23"/>
+      <c r="AB834" s="23"/>
+      <c r="AC834" s="23"/>
+      <c r="AD834" s="23"/>
+      <c r="AE834" s="23"/>
+      <c r="AF834" s="23"/>
+      <c r="AG834" s="23"/>
+      <c r="AH834" s="23"/>
+      <c r="AI834" s="23"/>
+      <c r="AJ834" s="23"/>
+      <c r="AK834" s="23"/>
+      <c r="AL834" s="23"/>
+      <c r="AM834" s="23"/>
+      <c r="AN834" s="23"/>
+      <c r="AO834" s="23"/>
+      <c r="AP834" s="23"/>
+      <c r="AQ834" s="23"/>
+      <c r="AR834" s="23"/>
+      <c r="AS834" s="23"/>
+      <c r="AT834" s="23"/>
+      <c r="AU834" s="23"/>
+      <c r="AV834" s="23"/>
+      <c r="AW834" s="23"/>
+      <c r="AX834" s="23"/>
+      <c r="AY834" s="23"/>
+      <c r="AZ834" s="23"/>
+      <c r="BA834" s="23"/>
+      <c r="BB834" s="23"/>
+      <c r="BC834" s="23">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="BD834" s="23"/>
+      <c r="BE834" s="23"/>
+      <c r="BF834" s="23"/>
+      <c r="BG834" s="23"/>
+      <c r="BH834" s="23"/>
+      <c r="BI834" s="23"/>
+      <c r="BJ834" s="23"/>
+      <c r="BK834" s="23"/>
+      <c r="BL834" s="23"/>
+      <c r="BM834" s="23"/>
+      <c r="BN834" s="23"/>
+      <c r="BO834" s="23"/>
+      <c r="BP834" s="23"/>
+      <c r="BQ834" s="23"/>
+      <c r="BR834" s="23"/>
+    </row>
+    <row r="835" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>44</v>
+      </c>
+      <c r="B835" t="s">
+        <v>46</v>
+      </c>
+      <c r="C835" t="s">
+        <v>57</v>
+      </c>
+      <c r="D835" t="s">
+        <v>63</v>
+      </c>
+      <c r="E835" t="s">
+        <v>68</v>
+      </c>
+      <c r="F835" t="s">
+        <v>73</v>
+      </c>
+      <c r="G835" t="s">
+        <v>77</v>
+      </c>
+      <c r="H835" t="s">
+        <v>83</v>
+      </c>
+      <c r="I835" s="23"/>
+      <c r="J835" s="23"/>
+      <c r="K835" s="23"/>
+      <c r="L835" s="23"/>
+      <c r="M835" s="23"/>
+      <c r="N835" s="23"/>
+      <c r="O835" s="23"/>
+      <c r="P835" s="23"/>
+      <c r="Q835" s="23"/>
+      <c r="R835" s="23"/>
+      <c r="S835" s="23"/>
+      <c r="T835" s="23"/>
+      <c r="U835" s="23"/>
+      <c r="V835" s="23"/>
+      <c r="W835" s="23"/>
+      <c r="X835" s="23"/>
+      <c r="Y835" s="23"/>
+      <c r="Z835" s="23"/>
+      <c r="AA835" s="23"/>
+      <c r="AB835" s="23"/>
+      <c r="AC835" s="23"/>
+      <c r="AD835" s="23"/>
+      <c r="AE835" s="23"/>
+      <c r="AF835" s="23"/>
+      <c r="AG835" s="23"/>
+      <c r="AH835" s="23"/>
+      <c r="AI835" s="23"/>
+      <c r="AJ835" s="23"/>
+      <c r="AK835" s="23"/>
+      <c r="AL835" s="23"/>
+      <c r="AM835" s="23"/>
+      <c r="AN835" s="23"/>
+      <c r="AO835" s="23"/>
+      <c r="AP835" s="23"/>
+      <c r="AQ835" s="23"/>
+      <c r="AR835" s="23"/>
+      <c r="AS835" s="23"/>
+      <c r="AT835" s="23"/>
+      <c r="AU835" s="23"/>
+      <c r="AV835" s="23"/>
+      <c r="AW835" s="23"/>
+      <c r="AX835" s="23"/>
+      <c r="AY835" s="23"/>
+      <c r="AZ835" s="23"/>
+      <c r="BA835" s="23"/>
+      <c r="BB835" s="23"/>
+      <c r="BC835" s="23">
+        <v>16.664416203335978</v>
+      </c>
+      <c r="BD835" s="23"/>
+      <c r="BE835" s="23"/>
+      <c r="BF835" s="23"/>
+      <c r="BG835" s="23"/>
+      <c r="BH835" s="23"/>
+      <c r="BI835" s="23"/>
+      <c r="BJ835" s="23"/>
+      <c r="BK835" s="23"/>
+      <c r="BL835" s="23"/>
+      <c r="BM835" s="23"/>
+      <c r="BN835" s="23"/>
+      <c r="BO835" s="23"/>
+      <c r="BP835" s="23"/>
+      <c r="BQ835" s="23"/>
+      <c r="BR835" s="23"/>
+    </row>
+    <row r="836" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>44</v>
+      </c>
+      <c r="B836" t="s">
+        <v>46</v>
+      </c>
+      <c r="C836" t="s">
+        <v>57</v>
+      </c>
+      <c r="D836" t="s">
+        <v>63</v>
+      </c>
+      <c r="E836" t="s">
+        <v>68</v>
+      </c>
+      <c r="F836" t="s">
+        <v>73</v>
+      </c>
+      <c r="G836" t="s">
+        <v>78</v>
+      </c>
+      <c r="H836" t="s">
+        <v>83</v>
+      </c>
+      <c r="I836" s="23"/>
+      <c r="J836" s="23"/>
+      <c r="K836" s="23"/>
+      <c r="L836" s="23"/>
+      <c r="M836" s="23"/>
+      <c r="N836" s="23"/>
+      <c r="O836" s="23"/>
+      <c r="P836" s="23"/>
+      <c r="Q836" s="23"/>
+      <c r="R836" s="23"/>
+      <c r="S836" s="23"/>
+      <c r="T836" s="23"/>
+      <c r="U836" s="23"/>
+      <c r="V836" s="23"/>
+      <c r="W836" s="23"/>
+      <c r="X836" s="23"/>
+      <c r="Y836" s="23"/>
+      <c r="Z836" s="23"/>
+      <c r="AA836" s="23"/>
+      <c r="AB836" s="23"/>
+      <c r="AC836" s="23"/>
+      <c r="AD836" s="23"/>
+      <c r="AE836" s="23"/>
+      <c r="AF836" s="23"/>
+      <c r="AG836" s="23"/>
+      <c r="AH836" s="23"/>
+      <c r="AI836" s="23"/>
+      <c r="AJ836" s="23"/>
+      <c r="AK836" s="23"/>
+      <c r="AL836" s="23"/>
+      <c r="AM836" s="23"/>
+      <c r="AN836" s="23"/>
+      <c r="AO836" s="23"/>
+      <c r="AP836" s="23"/>
+      <c r="AQ836" s="23"/>
+      <c r="AR836" s="23"/>
+      <c r="AS836" s="23"/>
+      <c r="AT836" s="23"/>
+      <c r="AU836" s="23"/>
+      <c r="AV836" s="23"/>
+      <c r="AW836" s="23"/>
+      <c r="AX836" s="23"/>
+      <c r="AY836" s="23"/>
+      <c r="AZ836" s="23"/>
+      <c r="BA836" s="23"/>
+      <c r="BB836" s="23"/>
+      <c r="BC836" s="23">
+        <v>11</v>
+      </c>
+      <c r="BD836" s="23"/>
+      <c r="BE836" s="23"/>
+      <c r="BF836" s="23"/>
+      <c r="BG836" s="23"/>
+      <c r="BH836" s="23"/>
+      <c r="BI836" s="23"/>
+      <c r="BJ836" s="23"/>
+      <c r="BK836" s="23"/>
+      <c r="BL836" s="23"/>
+      <c r="BM836" s="23"/>
+      <c r="BN836" s="23"/>
+      <c r="BO836" s="23"/>
+      <c r="BP836" s="23"/>
+      <c r="BQ836" s="23"/>
+      <c r="BR836" s="23"/>
+    </row>
+    <row r="837" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>44</v>
+      </c>
+      <c r="B837" t="s">
+        <v>46</v>
+      </c>
+      <c r="C837" t="s">
+        <v>57</v>
+      </c>
+      <c r="D837" t="s">
+        <v>63</v>
+      </c>
+      <c r="E837" t="s">
+        <v>68</v>
+      </c>
+      <c r="F837" t="s">
+        <v>73</v>
+      </c>
+      <c r="G837" t="s">
+        <v>79</v>
+      </c>
+      <c r="H837" t="s">
+        <v>83</v>
+      </c>
+      <c r="I837" s="23"/>
+      <c r="J837" s="23"/>
+      <c r="K837" s="23"/>
+      <c r="L837" s="23"/>
+      <c r="M837" s="23"/>
+      <c r="N837" s="23"/>
+      <c r="O837" s="23"/>
+      <c r="P837" s="23"/>
+      <c r="Q837" s="23"/>
+      <c r="R837" s="23"/>
+      <c r="S837" s="23"/>
+      <c r="T837" s="23"/>
+      <c r="U837" s="23"/>
+      <c r="V837" s="23"/>
+      <c r="W837" s="23"/>
+      <c r="X837" s="23"/>
+      <c r="Y837" s="23"/>
+      <c r="Z837" s="23"/>
+      <c r="AA837" s="23"/>
+      <c r="AB837" s="23"/>
+      <c r="AC837" s="23"/>
+      <c r="AD837" s="23"/>
+      <c r="AE837" s="23"/>
+      <c r="AF837" s="23"/>
+      <c r="AG837" s="23"/>
+      <c r="AH837" s="23"/>
+      <c r="AI837" s="23"/>
+      <c r="AJ837" s="23"/>
+      <c r="AK837" s="23"/>
+      <c r="AL837" s="23"/>
+      <c r="AM837" s="23"/>
+      <c r="AN837" s="23"/>
+      <c r="AO837" s="23"/>
+      <c r="AP837" s="23"/>
+      <c r="AQ837" s="23"/>
+      <c r="AR837" s="23"/>
+      <c r="AS837" s="23"/>
+      <c r="AT837" s="23"/>
+      <c r="AU837" s="23"/>
+      <c r="AV837" s="23"/>
+      <c r="AW837" s="23"/>
+      <c r="AX837" s="23"/>
+      <c r="AY837" s="23"/>
+      <c r="AZ837" s="23"/>
+      <c r="BA837" s="23"/>
+      <c r="BB837" s="23"/>
+      <c r="BC837" s="23">
+        <v>10</v>
+      </c>
+      <c r="BD837" s="23"/>
+      <c r="BE837" s="23"/>
+      <c r="BF837" s="23"/>
+      <c r="BG837" s="23"/>
+      <c r="BH837" s="23"/>
+      <c r="BI837" s="23"/>
+      <c r="BJ837" s="23"/>
+      <c r="BK837" s="23"/>
+      <c r="BL837" s="23"/>
+      <c r="BM837" s="23"/>
+      <c r="BN837" s="23"/>
+      <c r="BO837" s="23"/>
+      <c r="BP837" s="23"/>
+      <c r="BQ837" s="23"/>
+      <c r="BR837" s="23"/>
+    </row>
+    <row r="838" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>44</v>
+      </c>
+      <c r="B838" t="s">
+        <v>46</v>
+      </c>
+      <c r="C838" t="s">
+        <v>57</v>
+      </c>
+      <c r="D838" t="s">
+        <v>63</v>
+      </c>
+      <c r="E838" t="s">
+        <v>68</v>
+      </c>
+      <c r="F838" t="s">
+        <v>73</v>
+      </c>
+      <c r="G838" t="s">
+        <v>80</v>
+      </c>
+      <c r="H838" t="s">
+        <v>83</v>
+      </c>
+      <c r="I838" s="23"/>
+      <c r="J838" s="23"/>
+      <c r="K838" s="23"/>
+      <c r="L838" s="23"/>
+      <c r="M838" s="23"/>
+      <c r="N838" s="23"/>
+      <c r="O838" s="23"/>
+      <c r="P838" s="23"/>
+      <c r="Q838" s="23"/>
+      <c r="R838" s="23"/>
+      <c r="S838" s="23"/>
+      <c r="T838" s="23"/>
+      <c r="U838" s="23"/>
+      <c r="V838" s="23"/>
+      <c r="W838" s="23"/>
+      <c r="X838" s="23"/>
+      <c r="Y838" s="23"/>
+      <c r="Z838" s="23"/>
+      <c r="AA838" s="23"/>
+      <c r="AB838" s="23"/>
+      <c r="AC838" s="23"/>
+      <c r="AD838" s="23"/>
+      <c r="AE838" s="23"/>
+      <c r="AF838" s="23"/>
+      <c r="AG838" s="23"/>
+      <c r="AH838" s="23"/>
+      <c r="AI838" s="23"/>
+      <c r="AJ838" s="23"/>
+      <c r="AK838" s="23"/>
+      <c r="AL838" s="23"/>
+      <c r="AM838" s="23"/>
+      <c r="AN838" s="23"/>
+      <c r="AO838" s="23"/>
+      <c r="AP838" s="23"/>
+      <c r="AQ838" s="23"/>
+      <c r="AR838" s="23"/>
+      <c r="AS838" s="23"/>
+      <c r="AT838" s="23"/>
+      <c r="AU838" s="23"/>
+      <c r="AV838" s="23"/>
+      <c r="AW838" s="23"/>
+      <c r="AX838" s="23"/>
+      <c r="AY838" s="23"/>
+      <c r="AZ838" s="23"/>
+      <c r="BA838" s="23"/>
+      <c r="BB838" s="23"/>
+      <c r="BC838" s="23">
+        <v>56</v>
+      </c>
+      <c r="BD838" s="23"/>
+      <c r="BE838" s="23"/>
+      <c r="BF838" s="23"/>
+      <c r="BG838" s="23"/>
+      <c r="BH838" s="23"/>
+      <c r="BI838" s="23"/>
+      <c r="BJ838" s="23"/>
+      <c r="BK838" s="23"/>
+      <c r="BL838" s="23"/>
+      <c r="BM838" s="23"/>
+      <c r="BN838" s="23"/>
+      <c r="BO838" s="23"/>
+      <c r="BP838" s="23"/>
+      <c r="BQ838" s="23"/>
+      <c r="BR838" s="23"/>
+    </row>
+    <row r="839" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>44</v>
+      </c>
+      <c r="B839" t="s">
+        <v>46</v>
+      </c>
+      <c r="C839" t="s">
+        <v>57</v>
+      </c>
+      <c r="D839" t="s">
+        <v>63</v>
+      </c>
+      <c r="E839" t="s">
+        <v>68</v>
+      </c>
+      <c r="F839" t="s">
+        <v>73</v>
+      </c>
+      <c r="H839" t="s">
+        <v>82</v>
+      </c>
+      <c r="I839" s="23"/>
+      <c r="J839" s="23"/>
+      <c r="K839" s="23"/>
+      <c r="L839" s="23"/>
+      <c r="M839" s="23"/>
+      <c r="N839" s="23"/>
+      <c r="O839" s="23"/>
+      <c r="P839" s="23"/>
+      <c r="Q839" s="23"/>
+      <c r="R839" s="23"/>
+      <c r="S839" s="23"/>
+      <c r="T839" s="23"/>
+      <c r="U839" s="23"/>
+      <c r="V839" s="23"/>
+      <c r="W839" s="23"/>
+      <c r="X839" s="23"/>
+      <c r="Y839" s="23"/>
+      <c r="Z839" s="23"/>
+      <c r="AA839" s="23"/>
+      <c r="AB839" s="23"/>
+      <c r="AC839" s="23"/>
+      <c r="AD839" s="23"/>
+      <c r="AE839" s="23"/>
+      <c r="AF839" s="23"/>
+      <c r="AG839" s="23"/>
+      <c r="AH839" s="23"/>
+      <c r="AI839" s="23"/>
+      <c r="AJ839" s="23"/>
+      <c r="AK839" s="23"/>
+      <c r="AL839" s="23"/>
+      <c r="AM839" s="23"/>
+      <c r="AN839" s="23"/>
+      <c r="AO839" s="23"/>
+      <c r="AP839" s="23"/>
+      <c r="AQ839" s="23"/>
+      <c r="AR839" s="23"/>
+      <c r="AS839" s="23"/>
+      <c r="AT839" s="23"/>
+      <c r="AU839" s="23"/>
+      <c r="AV839" s="23"/>
+      <c r="AW839" s="23"/>
+      <c r="AX839" s="23"/>
+      <c r="AY839" s="23"/>
+      <c r="AZ839" s="23"/>
+      <c r="BA839" s="23"/>
+      <c r="BB839" s="23"/>
+      <c r="BC839" s="23">
+        <v>11.9</v>
+      </c>
+      <c r="BD839" s="23"/>
+      <c r="BE839" s="23"/>
+      <c r="BF839" s="23"/>
+      <c r="BG839" s="23"/>
+      <c r="BH839" s="23"/>
+      <c r="BI839" s="23"/>
+      <c r="BJ839" s="23"/>
+      <c r="BK839" s="23"/>
+      <c r="BL839" s="23"/>
+      <c r="BM839" s="23"/>
+      <c r="BN839" s="23"/>
+      <c r="BO839" s="23"/>
+      <c r="BP839" s="23"/>
+      <c r="BQ839" s="23"/>
+      <c r="BR839" s="23"/>
+    </row>
+    <row r="840" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>44</v>
+      </c>
+      <c r="B840" t="s">
+        <v>46</v>
+      </c>
+      <c r="C840" t="s">
+        <v>57</v>
+      </c>
+      <c r="D840" t="s">
+        <v>63</v>
+      </c>
+      <c r="E840" t="s">
+        <v>68</v>
+      </c>
+      <c r="F840" t="s">
+        <v>74</v>
+      </c>
+      <c r="H840" t="s">
+        <v>83</v>
+      </c>
+      <c r="I840" s="23"/>
+      <c r="J840" s="23"/>
+      <c r="K840" s="23"/>
+      <c r="L840" s="23"/>
+      <c r="M840" s="23"/>
+      <c r="N840" s="23"/>
+      <c r="O840" s="23"/>
+      <c r="P840" s="23"/>
+      <c r="Q840" s="23"/>
+      <c r="R840" s="23"/>
+      <c r="S840" s="23"/>
+      <c r="T840" s="23"/>
+      <c r="U840" s="23"/>
+      <c r="V840" s="23"/>
+      <c r="W840" s="23"/>
+      <c r="X840" s="23"/>
+      <c r="Y840" s="23"/>
+      <c r="Z840" s="23"/>
+      <c r="AA840" s="23"/>
+      <c r="AB840" s="23"/>
+      <c r="AC840" s="23"/>
+      <c r="AD840" s="23"/>
+      <c r="AE840" s="23"/>
+      <c r="AF840" s="23"/>
+      <c r="AG840" s="23"/>
+      <c r="AH840" s="23"/>
+      <c r="AI840" s="23"/>
+      <c r="AJ840" s="23"/>
+      <c r="AK840" s="23"/>
+      <c r="AL840" s="23"/>
+      <c r="AM840" s="23"/>
+      <c r="AN840" s="23"/>
+      <c r="AO840" s="23"/>
+      <c r="AP840" s="23"/>
+      <c r="AQ840" s="23"/>
+      <c r="AR840" s="23"/>
+      <c r="AS840" s="23"/>
+      <c r="AT840" s="23"/>
+      <c r="AU840" s="23"/>
+      <c r="AV840" s="23"/>
+      <c r="AW840" s="23"/>
+      <c r="AX840" s="23"/>
+      <c r="AY840" s="23"/>
+      <c r="AZ840" s="23"/>
+      <c r="BA840" s="23"/>
+      <c r="BB840" s="23"/>
+      <c r="BC840" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD840" s="23"/>
+      <c r="BE840" s="23"/>
+      <c r="BF840" s="23"/>
+      <c r="BG840" s="23"/>
+      <c r="BH840" s="23"/>
+      <c r="BI840" s="23"/>
+      <c r="BJ840" s="23"/>
+      <c r="BK840" s="23"/>
+      <c r="BL840" s="23"/>
+      <c r="BM840" s="23"/>
+      <c r="BN840" s="23"/>
+      <c r="BO840" s="23"/>
+      <c r="BP840" s="23"/>
+      <c r="BQ840" s="23"/>
+      <c r="BR840" s="23"/>
+    </row>
+    <row r="841" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>44</v>
+      </c>
+      <c r="B841" t="s">
+        <v>46</v>
+      </c>
+      <c r="C841" t="s">
+        <v>57</v>
+      </c>
+      <c r="D841" t="s">
+        <v>63</v>
+      </c>
+      <c r="E841" t="s">
+        <v>68</v>
+      </c>
+      <c r="F841" t="s">
+        <v>75</v>
+      </c>
+      <c r="H841" t="s">
+        <v>82</v>
+      </c>
+      <c r="I841" s="23"/>
+      <c r="J841" s="23"/>
+      <c r="K841" s="23"/>
+      <c r="L841" s="23"/>
+      <c r="M841" s="23"/>
+      <c r="N841" s="23"/>
+      <c r="O841" s="23"/>
+      <c r="P841" s="23"/>
+      <c r="Q841" s="23"/>
+      <c r="R841" s="23"/>
+      <c r="S841" s="23"/>
+      <c r="T841" s="23"/>
+      <c r="U841" s="23"/>
+      <c r="V841" s="23"/>
+      <c r="W841" s="23"/>
+      <c r="X841" s="23"/>
+      <c r="Y841" s="23"/>
+      <c r="Z841" s="23"/>
+      <c r="AA841" s="23"/>
+      <c r="AB841" s="23"/>
+      <c r="AC841" s="23"/>
+      <c r="AD841" s="23"/>
+      <c r="AE841" s="23"/>
+      <c r="AF841" s="23"/>
+      <c r="AG841" s="23"/>
+      <c r="AH841" s="23"/>
+      <c r="AI841" s="23"/>
+      <c r="AJ841" s="23"/>
+      <c r="AK841" s="23"/>
+      <c r="AL841" s="23"/>
+      <c r="AM841" s="23"/>
+      <c r="AN841" s="23"/>
+      <c r="AO841" s="23"/>
+      <c r="AP841" s="23"/>
+      <c r="AQ841" s="23"/>
+      <c r="AR841" s="23"/>
+      <c r="AS841" s="23"/>
+      <c r="AT841" s="23"/>
+      <c r="AU841" s="23"/>
+      <c r="AV841" s="23"/>
+      <c r="AW841" s="23"/>
+      <c r="AX841" s="23"/>
+      <c r="AY841" s="23"/>
+      <c r="AZ841" s="23"/>
+      <c r="BA841" s="23"/>
+      <c r="BB841" s="23"/>
+      <c r="BC841" s="23">
+        <v>12.5</v>
+      </c>
+      <c r="BD841" s="23"/>
+      <c r="BE841" s="23"/>
+      <c r="BF841" s="23"/>
+      <c r="BG841" s="23"/>
+      <c r="BH841" s="23"/>
+      <c r="BI841" s="23"/>
+      <c r="BJ841" s="23"/>
+      <c r="BK841" s="23"/>
+      <c r="BL841" s="23"/>
+      <c r="BM841" s="23"/>
+      <c r="BN841" s="23"/>
+      <c r="BO841" s="23"/>
+      <c r="BP841" s="23"/>
+      <c r="BQ841" s="23"/>
+      <c r="BR841" s="23"/>
+    </row>
+    <row r="842" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>44</v>
+      </c>
+      <c r="B842" t="s">
+        <v>46</v>
+      </c>
+      <c r="C842" t="s">
+        <v>57</v>
+      </c>
+      <c r="D842" t="s">
+        <v>63</v>
+      </c>
+      <c r="E842" t="s">
+        <v>69</v>
+      </c>
+      <c r="F842" t="s">
+        <v>70</v>
+      </c>
+      <c r="H842" t="s">
+        <v>81</v>
+      </c>
+      <c r="I842" s="23"/>
+      <c r="J842" s="23"/>
+      <c r="K842" s="23"/>
+      <c r="L842" s="23"/>
+      <c r="M842" s="23"/>
+      <c r="N842" s="23"/>
+      <c r="O842" s="23"/>
+      <c r="P842" s="23"/>
+      <c r="Q842" s="23"/>
+      <c r="R842" s="23"/>
+      <c r="S842" s="23"/>
+      <c r="T842" s="23"/>
+      <c r="U842" s="23"/>
+      <c r="V842" s="23"/>
+      <c r="W842" s="23"/>
+      <c r="X842" s="23"/>
+      <c r="Y842" s="23"/>
+      <c r="Z842" s="23"/>
+      <c r="AA842" s="23"/>
+      <c r="AB842" s="23"/>
+      <c r="AC842" s="23"/>
+      <c r="AD842" s="23"/>
+      <c r="AE842" s="23"/>
+      <c r="AF842" s="23"/>
+      <c r="AG842" s="23"/>
+      <c r="AH842" s="23"/>
+      <c r="AI842" s="23"/>
+      <c r="AJ842" s="23"/>
+      <c r="AK842" s="23"/>
+      <c r="AL842" s="23"/>
+      <c r="AM842" s="23"/>
+      <c r="AN842" s="23"/>
+      <c r="AO842" s="23"/>
+      <c r="AP842" s="23"/>
+      <c r="AQ842" s="23"/>
+      <c r="AR842" s="23"/>
+      <c r="AS842" s="23"/>
+      <c r="AT842" s="23"/>
+      <c r="AU842" s="23"/>
+      <c r="AV842" s="23"/>
+      <c r="AW842" s="23"/>
+      <c r="AX842" s="23"/>
+      <c r="AY842" s="23"/>
+      <c r="AZ842" s="23"/>
+      <c r="BA842" s="23"/>
+      <c r="BB842" s="23"/>
+      <c r="BC842" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD842" s="23"/>
+      <c r="BE842" s="23"/>
+      <c r="BF842" s="23"/>
+      <c r="BG842" s="23"/>
+      <c r="BH842" s="23"/>
+      <c r="BI842" s="23"/>
+      <c r="BJ842" s="23"/>
+      <c r="BK842" s="23"/>
+      <c r="BL842" s="23"/>
+      <c r="BM842" s="23"/>
+      <c r="BN842" s="23"/>
+      <c r="BO842" s="23"/>
+      <c r="BP842" s="23"/>
+      <c r="BQ842" s="23"/>
+      <c r="BR842" s="23"/>
+    </row>
+    <row r="843" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>44</v>
+      </c>
+      <c r="B843" t="s">
+        <v>46</v>
+      </c>
+      <c r="C843" t="s">
+        <v>57</v>
+      </c>
+      <c r="D843" t="s">
+        <v>63</v>
+      </c>
+      <c r="E843" t="s">
+        <v>69</v>
+      </c>
+      <c r="F843" t="s">
+        <v>71</v>
+      </c>
+      <c r="H843" t="s">
+        <v>82</v>
+      </c>
+      <c r="I843" s="23"/>
+      <c r="J843" s="23"/>
+      <c r="K843" s="23"/>
+      <c r="L843" s="23"/>
+      <c r="M843" s="23"/>
+      <c r="N843" s="23"/>
+      <c r="O843" s="23"/>
+      <c r="P843" s="23"/>
+      <c r="Q843" s="23"/>
+      <c r="R843" s="23"/>
+      <c r="S843" s="23"/>
+      <c r="T843" s="23"/>
+      <c r="U843" s="23"/>
+      <c r="V843" s="23"/>
+      <c r="W843" s="23"/>
+      <c r="X843" s="23"/>
+      <c r="Y843" s="23"/>
+      <c r="Z843" s="23"/>
+      <c r="AA843" s="23"/>
+      <c r="AB843" s="23"/>
+      <c r="AC843" s="23"/>
+      <c r="AD843" s="23"/>
+      <c r="AE843" s="23"/>
+      <c r="AF843" s="23"/>
+      <c r="AG843" s="23"/>
+      <c r="AH843" s="23"/>
+      <c r="AI843" s="23"/>
+      <c r="AJ843" s="23"/>
+      <c r="AK843" s="23"/>
+      <c r="AL843" s="23"/>
+      <c r="AM843" s="23"/>
+      <c r="AN843" s="23"/>
+      <c r="AO843" s="23"/>
+      <c r="AP843" s="23"/>
+      <c r="AQ843" s="23"/>
+      <c r="AR843" s="23"/>
+      <c r="AS843" s="23"/>
+      <c r="AT843" s="23"/>
+      <c r="AU843" s="23"/>
+      <c r="AV843" s="23"/>
+      <c r="AW843" s="23"/>
+      <c r="AX843" s="23"/>
+      <c r="AY843" s="23"/>
+      <c r="AZ843" s="23"/>
+      <c r="BA843" s="23"/>
+      <c r="BB843" s="23"/>
+      <c r="BC843" s="23">
+        <v>5.4</v>
+      </c>
+      <c r="BD843" s="23"/>
+      <c r="BE843" s="23"/>
+      <c r="BF843" s="23"/>
+      <c r="BG843" s="23"/>
+      <c r="BH843" s="23"/>
+      <c r="BI843" s="23"/>
+      <c r="BJ843" s="23"/>
+      <c r="BK843" s="23"/>
+      <c r="BL843" s="23"/>
+      <c r="BM843" s="23"/>
+      <c r="BN843" s="23"/>
+      <c r="BO843" s="23"/>
+      <c r="BP843" s="23"/>
+      <c r="BQ843" s="23"/>
+      <c r="BR843" s="23"/>
+    </row>
+    <row r="844" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>44</v>
+      </c>
+      <c r="B844" t="s">
+        <v>46</v>
+      </c>
+      <c r="C844" t="s">
+        <v>57</v>
+      </c>
+      <c r="D844" t="s">
+        <v>63</v>
+      </c>
+      <c r="E844" t="s">
+        <v>69</v>
+      </c>
+      <c r="F844" t="s">
+        <v>72</v>
+      </c>
+      <c r="H844" t="s">
+        <v>82</v>
+      </c>
+      <c r="I844" s="23"/>
+      <c r="J844" s="23"/>
+      <c r="K844" s="23"/>
+      <c r="L844" s="23"/>
+      <c r="M844" s="23"/>
+      <c r="N844" s="23"/>
+      <c r="O844" s="23"/>
+      <c r="P844" s="23"/>
+      <c r="Q844" s="23"/>
+      <c r="R844" s="23"/>
+      <c r="S844" s="23"/>
+      <c r="T844" s="23"/>
+      <c r="U844" s="23"/>
+      <c r="V844" s="23"/>
+      <c r="W844" s="23"/>
+      <c r="X844" s="23"/>
+      <c r="Y844" s="23"/>
+      <c r="Z844" s="23"/>
+      <c r="AA844" s="23"/>
+      <c r="AB844" s="23"/>
+      <c r="AC844" s="23"/>
+      <c r="AD844" s="23"/>
+      <c r="AE844" s="23"/>
+      <c r="AF844" s="23"/>
+      <c r="AG844" s="23"/>
+      <c r="AH844" s="23"/>
+      <c r="AI844" s="23"/>
+      <c r="AJ844" s="23"/>
+      <c r="AK844" s="23"/>
+      <c r="AL844" s="23"/>
+      <c r="AM844" s="23"/>
+      <c r="AN844" s="23"/>
+      <c r="AO844" s="23"/>
+      <c r="AP844" s="23"/>
+      <c r="AQ844" s="23"/>
+      <c r="AR844" s="23"/>
+      <c r="AS844" s="23"/>
+      <c r="AT844" s="23"/>
+      <c r="AU844" s="23"/>
+      <c r="AV844" s="23"/>
+      <c r="AW844" s="23"/>
+      <c r="AX844" s="23"/>
+      <c r="AY844" s="23"/>
+      <c r="AZ844" s="23"/>
+      <c r="BA844" s="23"/>
+      <c r="BB844" s="23"/>
+      <c r="BC844" s="23">
+        <v>22.677731999999999</v>
+      </c>
+      <c r="BD844" s="23"/>
+      <c r="BE844" s="23"/>
+      <c r="BF844" s="23"/>
+      <c r="BG844" s="23"/>
+      <c r="BH844" s="23"/>
+      <c r="BI844" s="23"/>
+      <c r="BJ844" s="23"/>
+      <c r="BK844" s="23"/>
+      <c r="BL844" s="23"/>
+      <c r="BM844" s="23"/>
+      <c r="BN844" s="23"/>
+      <c r="BO844" s="23"/>
+      <c r="BP844" s="23"/>
+      <c r="BQ844" s="23"/>
+      <c r="BR844" s="23"/>
+    </row>
+    <row r="845" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>44</v>
+      </c>
+      <c r="B845" t="s">
+        <v>46</v>
+      </c>
+      <c r="C845" t="s">
+        <v>57</v>
+      </c>
+      <c r="D845" t="s">
+        <v>63</v>
+      </c>
+      <c r="E845" t="s">
+        <v>69</v>
+      </c>
+      <c r="F845" t="s">
+        <v>73</v>
+      </c>
+      <c r="G845" t="s">
+        <v>76</v>
+      </c>
+      <c r="H845" t="s">
+        <v>83</v>
+      </c>
+      <c r="I845" s="23"/>
+      <c r="J845" s="23"/>
+      <c r="K845" s="23"/>
+      <c r="L845" s="23"/>
+      <c r="M845" s="23"/>
+      <c r="N845" s="23"/>
+      <c r="O845" s="23"/>
+      <c r="P845" s="23"/>
+      <c r="Q845" s="23"/>
+      <c r="R845" s="23"/>
+      <c r="S845" s="23"/>
+      <c r="T845" s="23"/>
+      <c r="U845" s="23"/>
+      <c r="V845" s="23"/>
+      <c r="W845" s="23"/>
+      <c r="X845" s="23"/>
+      <c r="Y845" s="23"/>
+      <c r="Z845" s="23"/>
+      <c r="AA845" s="23"/>
+      <c r="AB845" s="23"/>
+      <c r="AC845" s="23"/>
+      <c r="AD845" s="23"/>
+      <c r="AE845" s="23"/>
+      <c r="AF845" s="23"/>
+      <c r="AG845" s="23"/>
+      <c r="AH845" s="23"/>
+      <c r="AI845" s="23"/>
+      <c r="AJ845" s="23"/>
+      <c r="AK845" s="23"/>
+      <c r="AL845" s="23"/>
+      <c r="AM845" s="23"/>
+      <c r="AN845" s="23"/>
+      <c r="AO845" s="23"/>
+      <c r="AP845" s="23"/>
+      <c r="AQ845" s="23"/>
+      <c r="AR845" s="23"/>
+      <c r="AS845" s="23"/>
+      <c r="AT845" s="23"/>
+      <c r="AU845" s="23"/>
+      <c r="AV845" s="23"/>
+      <c r="AW845" s="23"/>
+      <c r="AX845" s="23"/>
+      <c r="AY845" s="23"/>
+      <c r="AZ845" s="23"/>
+      <c r="BA845" s="23"/>
+      <c r="BB845" s="23"/>
+      <c r="BC845" s="23">
+        <v>6.3355837966640189</v>
+      </c>
+      <c r="BD845" s="23"/>
+      <c r="BE845" s="23"/>
+      <c r="BF845" s="23"/>
+      <c r="BG845" s="23"/>
+      <c r="BH845" s="23"/>
+      <c r="BI845" s="23"/>
+      <c r="BJ845" s="23"/>
+      <c r="BK845" s="23"/>
+      <c r="BL845" s="23"/>
+      <c r="BM845" s="23"/>
+      <c r="BN845" s="23"/>
+      <c r="BO845" s="23"/>
+      <c r="BP845" s="23"/>
+      <c r="BQ845" s="23"/>
+      <c r="BR845" s="23"/>
+    </row>
+    <row r="846" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>44</v>
+      </c>
+      <c r="B846" t="s">
+        <v>46</v>
+      </c>
+      <c r="C846" t="s">
+        <v>57</v>
+      </c>
+      <c r="D846" t="s">
+        <v>63</v>
+      </c>
+      <c r="E846" t="s">
+        <v>69</v>
+      </c>
+      <c r="F846" t="s">
+        <v>73</v>
+      </c>
+      <c r="G846" t="s">
+        <v>77</v>
+      </c>
+      <c r="H846" t="s">
+        <v>83</v>
+      </c>
+      <c r="I846" s="23"/>
+      <c r="J846" s="23"/>
+      <c r="K846" s="23"/>
+      <c r="L846" s="23"/>
+      <c r="M846" s="23"/>
+      <c r="N846" s="23"/>
+      <c r="O846" s="23"/>
+      <c r="P846" s="23"/>
+      <c r="Q846" s="23"/>
+      <c r="R846" s="23"/>
+      <c r="S846" s="23"/>
+      <c r="T846" s="23"/>
+      <c r="U846" s="23"/>
+      <c r="V846" s="23"/>
+      <c r="W846" s="23"/>
+      <c r="X846" s="23"/>
+      <c r="Y846" s="23"/>
+      <c r="Z846" s="23"/>
+      <c r="AA846" s="23"/>
+      <c r="AB846" s="23"/>
+      <c r="AC846" s="23"/>
+      <c r="AD846" s="23"/>
+      <c r="AE846" s="23"/>
+      <c r="AF846" s="23"/>
+      <c r="AG846" s="23"/>
+      <c r="AH846" s="23"/>
+      <c r="AI846" s="23"/>
+      <c r="AJ846" s="23"/>
+      <c r="AK846" s="23"/>
+      <c r="AL846" s="23"/>
+      <c r="AM846" s="23"/>
+      <c r="AN846" s="23"/>
+      <c r="AO846" s="23"/>
+      <c r="AP846" s="23"/>
+      <c r="AQ846" s="23"/>
+      <c r="AR846" s="23"/>
+      <c r="AS846" s="23"/>
+      <c r="AT846" s="23"/>
+      <c r="AU846" s="23"/>
+      <c r="AV846" s="23"/>
+      <c r="AW846" s="23"/>
+      <c r="AX846" s="23"/>
+      <c r="AY846" s="23"/>
+      <c r="AZ846" s="23"/>
+      <c r="BA846" s="23"/>
+      <c r="BB846" s="23"/>
+      <c r="BC846" s="23">
+        <v>16.664416203335978</v>
+      </c>
+      <c r="BD846" s="23"/>
+      <c r="BE846" s="23"/>
+      <c r="BF846" s="23"/>
+      <c r="BG846" s="23"/>
+      <c r="BH846" s="23"/>
+      <c r="BI846" s="23"/>
+      <c r="BJ846" s="23"/>
+      <c r="BK846" s="23"/>
+      <c r="BL846" s="23"/>
+      <c r="BM846" s="23"/>
+      <c r="BN846" s="23"/>
+      <c r="BO846" s="23"/>
+      <c r="BP846" s="23"/>
+      <c r="BQ846" s="23"/>
+      <c r="BR846" s="23"/>
+    </row>
+    <row r="847" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>44</v>
+      </c>
+      <c r="B847" t="s">
+        <v>46</v>
+      </c>
+      <c r="C847" t="s">
+        <v>57</v>
+      </c>
+      <c r="D847" t="s">
+        <v>63</v>
+      </c>
+      <c r="E847" t="s">
+        <v>69</v>
+      </c>
+      <c r="F847" t="s">
+        <v>73</v>
+      </c>
+      <c r="G847" t="s">
+        <v>78</v>
+      </c>
+      <c r="H847" t="s">
+        <v>83</v>
+      </c>
+      <c r="I847" s="23"/>
+      <c r="J847" s="23"/>
+      <c r="K847" s="23"/>
+      <c r="L847" s="23"/>
+      <c r="M847" s="23"/>
+      <c r="N847" s="23"/>
+      <c r="O847" s="23"/>
+      <c r="P847" s="23"/>
+      <c r="Q847" s="23"/>
+      <c r="R847" s="23"/>
+      <c r="S847" s="23"/>
+      <c r="T847" s="23"/>
+      <c r="U847" s="23"/>
+      <c r="V847" s="23"/>
+      <c r="W847" s="23"/>
+      <c r="X847" s="23"/>
+      <c r="Y847" s="23"/>
+      <c r="Z847" s="23"/>
+      <c r="AA847" s="23"/>
+      <c r="AB847" s="23"/>
+      <c r="AC847" s="23"/>
+      <c r="AD847" s="23"/>
+      <c r="AE847" s="23"/>
+      <c r="AF847" s="23"/>
+      <c r="AG847" s="23"/>
+      <c r="AH847" s="23"/>
+      <c r="AI847" s="23"/>
+      <c r="AJ847" s="23"/>
+      <c r="AK847" s="23"/>
+      <c r="AL847" s="23"/>
+      <c r="AM847" s="23"/>
+      <c r="AN847" s="23"/>
+      <c r="AO847" s="23"/>
+      <c r="AP847" s="23"/>
+      <c r="AQ847" s="23"/>
+      <c r="AR847" s="23"/>
+      <c r="AS847" s="23"/>
+      <c r="AT847" s="23"/>
+      <c r="AU847" s="23"/>
+      <c r="AV847" s="23"/>
+      <c r="AW847" s="23"/>
+      <c r="AX847" s="23"/>
+      <c r="AY847" s="23"/>
+      <c r="AZ847" s="23"/>
+      <c r="BA847" s="23"/>
+      <c r="BB847" s="23"/>
+      <c r="BC847" s="23">
+        <v>11</v>
+      </c>
+      <c r="BD847" s="23"/>
+      <c r="BE847" s="23"/>
+      <c r="BF847" s="23"/>
+      <c r="BG847" s="23"/>
+      <c r="BH847" s="23"/>
+      <c r="BI847" s="23"/>
+      <c r="BJ847" s="23"/>
+      <c r="BK847" s="23"/>
+      <c r="BL847" s="23"/>
+      <c r="BM847" s="23"/>
+      <c r="BN847" s="23"/>
+      <c r="BO847" s="23"/>
+      <c r="BP847" s="23"/>
+      <c r="BQ847" s="23"/>
+      <c r="BR847" s="23"/>
+    </row>
+    <row r="848" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>44</v>
+      </c>
+      <c r="B848" t="s">
+        <v>46</v>
+      </c>
+      <c r="C848" t="s">
+        <v>57</v>
+      </c>
+      <c r="D848" t="s">
+        <v>63</v>
+      </c>
+      <c r="E848" t="s">
+        <v>69</v>
+      </c>
+      <c r="F848" t="s">
+        <v>73</v>
+      </c>
+      <c r="G848" t="s">
+        <v>79</v>
+      </c>
+      <c r="H848" t="s">
+        <v>83</v>
+      </c>
+      <c r="I848" s="23"/>
+      <c r="J848" s="23"/>
+      <c r="K848" s="23"/>
+      <c r="L848" s="23"/>
+      <c r="M848" s="23"/>
+      <c r="N848" s="23"/>
+      <c r="O848" s="23"/>
+      <c r="P848" s="23"/>
+      <c r="Q848" s="23"/>
+      <c r="R848" s="23"/>
+      <c r="S848" s="23"/>
+      <c r="T848" s="23"/>
+      <c r="U848" s="23"/>
+      <c r="V848" s="23"/>
+      <c r="W848" s="23"/>
+      <c r="X848" s="23"/>
+      <c r="Y848" s="23"/>
+      <c r="Z848" s="23"/>
+      <c r="AA848" s="23"/>
+      <c r="AB848" s="23"/>
+      <c r="AC848" s="23"/>
+      <c r="AD848" s="23"/>
+      <c r="AE848" s="23"/>
+      <c r="AF848" s="23"/>
+      <c r="AG848" s="23"/>
+      <c r="AH848" s="23"/>
+      <c r="AI848" s="23"/>
+      <c r="AJ848" s="23"/>
+      <c r="AK848" s="23"/>
+      <c r="AL848" s="23"/>
+      <c r="AM848" s="23"/>
+      <c r="AN848" s="23"/>
+      <c r="AO848" s="23"/>
+      <c r="AP848" s="23"/>
+      <c r="AQ848" s="23"/>
+      <c r="AR848" s="23"/>
+      <c r="AS848" s="23"/>
+      <c r="AT848" s="23"/>
+      <c r="AU848" s="23"/>
+      <c r="AV848" s="23"/>
+      <c r="AW848" s="23"/>
+      <c r="AX848" s="23"/>
+      <c r="AY848" s="23"/>
+      <c r="AZ848" s="23"/>
+      <c r="BA848" s="23"/>
+      <c r="BB848" s="23"/>
+      <c r="BC848" s="23">
+        <v>10</v>
+      </c>
+      <c r="BD848" s="23"/>
+      <c r="BE848" s="23"/>
+      <c r="BF848" s="23"/>
+      <c r="BG848" s="23"/>
+      <c r="BH848" s="23"/>
+      <c r="BI848" s="23"/>
+      <c r="BJ848" s="23"/>
+      <c r="BK848" s="23"/>
+      <c r="BL848" s="23"/>
+      <c r="BM848" s="23"/>
+      <c r="BN848" s="23"/>
+      <c r="BO848" s="23"/>
+      <c r="BP848" s="23"/>
+      <c r="BQ848" s="23"/>
+      <c r="BR848" s="23"/>
+    </row>
+    <row r="849" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>44</v>
+      </c>
+      <c r="B849" t="s">
+        <v>46</v>
+      </c>
+      <c r="C849" t="s">
+        <v>57</v>
+      </c>
+      <c r="D849" t="s">
+        <v>63</v>
+      </c>
+      <c r="E849" t="s">
+        <v>69</v>
+      </c>
+      <c r="F849" t="s">
+        <v>73</v>
+      </c>
+      <c r="G849" t="s">
+        <v>80</v>
+      </c>
+      <c r="H849" t="s">
+        <v>83</v>
+      </c>
+      <c r="I849" s="23"/>
+      <c r="J849" s="23"/>
+      <c r="K849" s="23"/>
+      <c r="L849" s="23"/>
+      <c r="M849" s="23"/>
+      <c r="N849" s="23"/>
+      <c r="O849" s="23"/>
+      <c r="P849" s="23"/>
+      <c r="Q849" s="23"/>
+      <c r="R849" s="23"/>
+      <c r="S849" s="23"/>
+      <c r="T849" s="23"/>
+      <c r="U849" s="23"/>
+      <c r="V849" s="23"/>
+      <c r="W849" s="23"/>
+      <c r="X849" s="23"/>
+      <c r="Y849" s="23"/>
+      <c r="Z849" s="23"/>
+      <c r="AA849" s="23"/>
+      <c r="AB849" s="23"/>
+      <c r="AC849" s="23"/>
+      <c r="AD849" s="23"/>
+      <c r="AE849" s="23"/>
+      <c r="AF849" s="23"/>
+      <c r="AG849" s="23"/>
+      <c r="AH849" s="23"/>
+      <c r="AI849" s="23"/>
+      <c r="AJ849" s="23"/>
+      <c r="AK849" s="23"/>
+      <c r="AL849" s="23"/>
+      <c r="AM849" s="23"/>
+      <c r="AN849" s="23"/>
+      <c r="AO849" s="23"/>
+      <c r="AP849" s="23"/>
+      <c r="AQ849" s="23"/>
+      <c r="AR849" s="23"/>
+      <c r="AS849" s="23"/>
+      <c r="AT849" s="23"/>
+      <c r="AU849" s="23"/>
+      <c r="AV849" s="23"/>
+      <c r="AW849" s="23"/>
+      <c r="AX849" s="23"/>
+      <c r="AY849" s="23"/>
+      <c r="AZ849" s="23"/>
+      <c r="BA849" s="23"/>
+      <c r="BB849" s="23"/>
+      <c r="BC849" s="23">
+        <v>56</v>
+      </c>
+      <c r="BD849" s="23"/>
+      <c r="BE849" s="23"/>
+      <c r="BF849" s="23"/>
+      <c r="BG849" s="23"/>
+      <c r="BH849" s="23"/>
+      <c r="BI849" s="23"/>
+      <c r="BJ849" s="23"/>
+      <c r="BK849" s="23"/>
+      <c r="BL849" s="23"/>
+      <c r="BM849" s="23"/>
+      <c r="BN849" s="23"/>
+      <c r="BO849" s="23"/>
+      <c r="BP849" s="23"/>
+      <c r="BQ849" s="23"/>
+      <c r="BR849" s="23"/>
+    </row>
+    <row r="850" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>44</v>
+      </c>
+      <c r="B850" t="s">
+        <v>46</v>
+      </c>
+      <c r="C850" t="s">
+        <v>57</v>
+      </c>
+      <c r="D850" t="s">
+        <v>63</v>
+      </c>
+      <c r="E850" t="s">
+        <v>69</v>
+      </c>
+      <c r="F850" t="s">
+        <v>73</v>
+      </c>
+      <c r="H850" t="s">
+        <v>82</v>
+      </c>
+      <c r="I850" s="23"/>
+      <c r="J850" s="23"/>
+      <c r="K850" s="23"/>
+      <c r="L850" s="23"/>
+      <c r="M850" s="23"/>
+      <c r="N850" s="23"/>
+      <c r="O850" s="23"/>
+      <c r="P850" s="23"/>
+      <c r="Q850" s="23"/>
+      <c r="R850" s="23"/>
+      <c r="S850" s="23"/>
+      <c r="T850" s="23"/>
+      <c r="U850" s="23"/>
+      <c r="V850" s="23"/>
+      <c r="W850" s="23"/>
+      <c r="X850" s="23"/>
+      <c r="Y850" s="23"/>
+      <c r="Z850" s="23"/>
+      <c r="AA850" s="23"/>
+      <c r="AB850" s="23"/>
+      <c r="AC850" s="23"/>
+      <c r="AD850" s="23"/>
+      <c r="AE850" s="23"/>
+      <c r="AF850" s="23"/>
+      <c r="AG850" s="23"/>
+      <c r="AH850" s="23"/>
+      <c r="AI850" s="23"/>
+      <c r="AJ850" s="23"/>
+      <c r="AK850" s="23"/>
+      <c r="AL850" s="23"/>
+      <c r="AM850" s="23"/>
+      <c r="AN850" s="23"/>
+      <c r="AO850" s="23"/>
+      <c r="AP850" s="23"/>
+      <c r="AQ850" s="23"/>
+      <c r="AR850" s="23"/>
+      <c r="AS850" s="23"/>
+      <c r="AT850" s="23"/>
+      <c r="AU850" s="23"/>
+      <c r="AV850" s="23"/>
+      <c r="AW850" s="23"/>
+      <c r="AX850" s="23"/>
+      <c r="AY850" s="23"/>
+      <c r="AZ850" s="23"/>
+      <c r="BA850" s="23"/>
+      <c r="BB850" s="23"/>
+      <c r="BC850" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD850" s="23"/>
+      <c r="BE850" s="23"/>
+      <c r="BF850" s="23"/>
+      <c r="BG850" s="23"/>
+      <c r="BH850" s="23"/>
+      <c r="BI850" s="23"/>
+      <c r="BJ850" s="23"/>
+      <c r="BK850" s="23"/>
+      <c r="BL850" s="23"/>
+      <c r="BM850" s="23"/>
+      <c r="BN850" s="23"/>
+      <c r="BO850" s="23"/>
+      <c r="BP850" s="23"/>
+      <c r="BQ850" s="23"/>
+      <c r="BR850" s="23"/>
+    </row>
+    <row r="851" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>44</v>
+      </c>
+      <c r="B851" t="s">
+        <v>46</v>
+      </c>
+      <c r="C851" t="s">
+        <v>57</v>
+      </c>
+      <c r="D851" t="s">
+        <v>63</v>
+      </c>
+      <c r="E851" t="s">
+        <v>69</v>
+      </c>
+      <c r="F851" t="s">
+        <v>74</v>
+      </c>
+      <c r="H851" t="s">
+        <v>83</v>
+      </c>
+      <c r="I851" s="23"/>
+      <c r="J851" s="23"/>
+      <c r="K851" s="23"/>
+      <c r="L851" s="23"/>
+      <c r="M851" s="23"/>
+      <c r="N851" s="23"/>
+      <c r="O851" s="23"/>
+      <c r="P851" s="23"/>
+      <c r="Q851" s="23"/>
+      <c r="R851" s="23"/>
+      <c r="S851" s="23"/>
+      <c r="T851" s="23"/>
+      <c r="U851" s="23"/>
+      <c r="V851" s="23"/>
+      <c r="W851" s="23"/>
+      <c r="X851" s="23"/>
+      <c r="Y851" s="23"/>
+      <c r="Z851" s="23"/>
+      <c r="AA851" s="23"/>
+      <c r="AB851" s="23"/>
+      <c r="AC851" s="23"/>
+      <c r="AD851" s="23"/>
+      <c r="AE851" s="23"/>
+      <c r="AF851" s="23"/>
+      <c r="AG851" s="23"/>
+      <c r="AH851" s="23"/>
+      <c r="AI851" s="23"/>
+      <c r="AJ851" s="23"/>
+      <c r="AK851" s="23"/>
+      <c r="AL851" s="23"/>
+      <c r="AM851" s="23"/>
+      <c r="AN851" s="23"/>
+      <c r="AO851" s="23"/>
+      <c r="AP851" s="23"/>
+      <c r="AQ851" s="23"/>
+      <c r="AR851" s="23"/>
+      <c r="AS851" s="23"/>
+      <c r="AT851" s="23"/>
+      <c r="AU851" s="23"/>
+      <c r="AV851" s="23"/>
+      <c r="AW851" s="23"/>
+      <c r="AX851" s="23"/>
+      <c r="AY851" s="23"/>
+      <c r="AZ851" s="23"/>
+      <c r="BA851" s="23"/>
+      <c r="BB851" s="23"/>
+      <c r="BC851" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD851" s="23"/>
+      <c r="BE851" s="23"/>
+      <c r="BF851" s="23"/>
+      <c r="BG851" s="23"/>
+      <c r="BH851" s="23"/>
+      <c r="BI851" s="23"/>
+      <c r="BJ851" s="23"/>
+      <c r="BK851" s="23"/>
+      <c r="BL851" s="23"/>
+      <c r="BM851" s="23"/>
+      <c r="BN851" s="23"/>
+      <c r="BO851" s="23"/>
+      <c r="BP851" s="23"/>
+      <c r="BQ851" s="23"/>
+      <c r="BR851" s="23"/>
+    </row>
+    <row r="852" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>44</v>
+      </c>
+      <c r="B852" t="s">
+        <v>46</v>
+      </c>
+      <c r="C852" t="s">
+        <v>57</v>
+      </c>
+      <c r="D852" t="s">
+        <v>63</v>
+      </c>
+      <c r="E852" t="s">
+        <v>69</v>
+      </c>
+      <c r="F852" t="s">
+        <v>75</v>
+      </c>
+      <c r="H852" t="s">
+        <v>82</v>
+      </c>
+      <c r="I852" s="23"/>
+      <c r="J852" s="23"/>
+      <c r="K852" s="23"/>
+      <c r="L852" s="23"/>
+      <c r="M852" s="23"/>
+      <c r="N852" s="23"/>
+      <c r="O852" s="23"/>
+      <c r="P852" s="23"/>
+      <c r="Q852" s="23"/>
+      <c r="R852" s="23"/>
+      <c r="S852" s="23"/>
+      <c r="T852" s="23"/>
+      <c r="U852" s="23"/>
+      <c r="V852" s="23"/>
+      <c r="W852" s="23"/>
+      <c r="X852" s="23"/>
+      <c r="Y852" s="23"/>
+      <c r="Z852" s="23"/>
+      <c r="AA852" s="23"/>
+      <c r="AB852" s="23"/>
+      <c r="AC852" s="23"/>
+      <c r="AD852" s="23"/>
+      <c r="AE852" s="23"/>
+      <c r="AF852" s="23"/>
+      <c r="AG852" s="23"/>
+      <c r="AH852" s="23"/>
+      <c r="AI852" s="23"/>
+      <c r="AJ852" s="23"/>
+      <c r="AK852" s="23"/>
+      <c r="AL852" s="23"/>
+      <c r="AM852" s="23"/>
+      <c r="AN852" s="23"/>
+      <c r="AO852" s="23"/>
+      <c r="AP852" s="23"/>
+      <c r="AQ852" s="23"/>
+      <c r="AR852" s="23"/>
+      <c r="AS852" s="23"/>
+      <c r="AT852" s="23"/>
+      <c r="AU852" s="23"/>
+      <c r="AV852" s="23"/>
+      <c r="AW852" s="23"/>
+      <c r="AX852" s="23"/>
+      <c r="AY852" s="23"/>
+      <c r="AZ852" s="23"/>
+      <c r="BA852" s="23"/>
+      <c r="BB852" s="23"/>
+      <c r="BC852" s="23">
+        <v>28.077732000000001</v>
+      </c>
+      <c r="BD852" s="23"/>
+      <c r="BE852" s="23"/>
+      <c r="BF852" s="23"/>
+      <c r="BG852" s="23"/>
+      <c r="BH852" s="23"/>
+      <c r="BI852" s="23"/>
+      <c r="BJ852" s="23"/>
+      <c r="BK852" s="23"/>
+      <c r="BL852" s="23"/>
+      <c r="BM852" s="23"/>
+      <c r="BN852" s="23"/>
+      <c r="BO852" s="23"/>
+      <c r="BP852" s="23"/>
+      <c r="BQ852" s="23"/>
+      <c r="BR852" s="23"/>
+    </row>
+    <row r="853" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="BC853">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="854" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>44</v>
+      </c>
+      <c r="B854" t="s">
+        <v>46</v>
+      </c>
+      <c r="C854" t="s">
+        <v>58</v>
+      </c>
+      <c r="D854" t="s">
+        <v>63</v>
+      </c>
+      <c r="E854" t="s">
+        <v>68</v>
+      </c>
+      <c r="F854" t="s">
+        <v>71</v>
+      </c>
+      <c r="H854" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA854" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>44</v>
+      </c>
+      <c r="B855" t="s">
+        <v>46</v>
+      </c>
+      <c r="C855" t="s">
+        <v>58</v>
+      </c>
+      <c r="D855" t="s">
+        <v>63</v>
+      </c>
+      <c r="E855" t="s">
+        <v>68</v>
+      </c>
+      <c r="F855" t="s">
+        <v>72</v>
+      </c>
+      <c r="H855" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA855" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>44</v>
+      </c>
+      <c r="B856" t="s">
+        <v>46</v>
+      </c>
+      <c r="C856" t="s">
+        <v>58</v>
+      </c>
+      <c r="D856" t="s">
+        <v>63</v>
+      </c>
+      <c r="E856" t="s">
+        <v>68</v>
+      </c>
+      <c r="F856" t="s">
+        <v>73</v>
+      </c>
+      <c r="G856" t="s">
+        <v>76</v>
+      </c>
+      <c r="H856" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA856" s="24">
+        <v>6.3355837966640189</v>
+      </c>
+    </row>
+    <row r="857" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>44</v>
+      </c>
+      <c r="B857" t="s">
+        <v>46</v>
+      </c>
+      <c r="C857" t="s">
+        <v>58</v>
+      </c>
+      <c r="D857" t="s">
+        <v>63</v>
+      </c>
+      <c r="E857" t="s">
+        <v>68</v>
+      </c>
+      <c r="F857" t="s">
+        <v>73</v>
+      </c>
+      <c r="G857" t="s">
+        <v>77</v>
+      </c>
+      <c r="H857" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA857" s="24">
+        <v>16.664416203335978</v>
+      </c>
+    </row>
+    <row r="858" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>44</v>
+      </c>
+      <c r="B858" t="s">
+        <v>46</v>
+      </c>
+      <c r="C858" t="s">
+        <v>58</v>
+      </c>
+      <c r="D858" t="s">
+        <v>63</v>
+      </c>
+      <c r="E858" t="s">
+        <v>68</v>
+      </c>
+      <c r="F858" t="s">
+        <v>73</v>
+      </c>
+      <c r="G858" t="s">
+        <v>78</v>
+      </c>
+      <c r="H858" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA858" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="859" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>44</v>
+      </c>
+      <c r="B859" t="s">
+        <v>46</v>
+      </c>
+      <c r="C859" t="s">
+        <v>58</v>
+      </c>
+      <c r="D859" t="s">
+        <v>63</v>
+      </c>
+      <c r="E859" t="s">
+        <v>68</v>
+      </c>
+      <c r="F859" t="s">
+        <v>73</v>
+      </c>
+      <c r="G859" t="s">
+        <v>79</v>
+      </c>
+      <c r="H859" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA859" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="860" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>44</v>
+      </c>
+      <c r="B860" t="s">
+        <v>46</v>
+      </c>
+      <c r="C860" t="s">
+        <v>58</v>
+      </c>
+      <c r="D860" t="s">
+        <v>63</v>
+      </c>
+      <c r="E860" t="s">
+        <v>68</v>
+      </c>
+      <c r="F860" t="s">
+        <v>73</v>
+      </c>
+      <c r="G860" t="s">
+        <v>80</v>
+      </c>
+      <c r="H860" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA860" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="861" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>44</v>
+      </c>
+      <c r="B861" t="s">
+        <v>46</v>
+      </c>
+      <c r="C861" t="s">
+        <v>58</v>
+      </c>
+      <c r="D861" t="s">
+        <v>63</v>
+      </c>
+      <c r="E861" t="s">
+        <v>68</v>
+      </c>
+      <c r="F861" t="s">
+        <v>73</v>
+      </c>
+      <c r="H861" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA861" s="24">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="862" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>44</v>
+      </c>
+      <c r="B862" t="s">
+        <v>46</v>
+      </c>
+      <c r="C862" t="s">
+        <v>58</v>
+      </c>
+      <c r="D862" t="s">
+        <v>63</v>
+      </c>
+      <c r="E862" t="s">
+        <v>68</v>
+      </c>
+      <c r="F862" t="s">
+        <v>74</v>
+      </c>
+      <c r="H862" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA862" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>44</v>
+      </c>
+      <c r="B863" t="s">
+        <v>46</v>
+      </c>
+      <c r="C863" t="s">
+        <v>58</v>
+      </c>
+      <c r="D863" t="s">
+        <v>63</v>
+      </c>
+      <c r="E863" t="s">
+        <v>68</v>
+      </c>
+      <c r="F863" t="s">
+        <v>75</v>
+      </c>
+      <c r="H863" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA863" s="24">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="864" spans="1:70" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>44</v>
+      </c>
+      <c r="B864" t="s">
+        <v>46</v>
+      </c>
+      <c r="C864" t="s">
+        <v>58</v>
+      </c>
+      <c r="D864" t="s">
+        <v>63</v>
+      </c>
+      <c r="E864" t="s">
+        <v>69</v>
+      </c>
+      <c r="F864" t="s">
+        <v>71</v>
+      </c>
+      <c r="H864" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA864" s="24">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="865" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>44</v>
+      </c>
+      <c r="B865" t="s">
+        <v>46</v>
+      </c>
+      <c r="C865" t="s">
+        <v>58</v>
+      </c>
+      <c r="D865" t="s">
+        <v>63</v>
+      </c>
+      <c r="E865" t="s">
+        <v>69</v>
+      </c>
+      <c r="F865" t="s">
+        <v>72</v>
+      </c>
+      <c r="H865" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA865" s="24">
+        <v>22.677731999999999</v>
+      </c>
+    </row>
+    <row r="866" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>44</v>
+      </c>
+      <c r="B866" t="s">
+        <v>46</v>
+      </c>
+      <c r="C866" t="s">
+        <v>58</v>
+      </c>
+      <c r="D866" t="s">
+        <v>63</v>
+      </c>
+      <c r="E866" t="s">
+        <v>69</v>
+      </c>
+      <c r="F866" t="s">
+        <v>73</v>
+      </c>
+      <c r="G866" t="s">
+        <v>76</v>
+      </c>
+      <c r="H866" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA866" s="24">
+        <v>6.3355837966640189</v>
+      </c>
+    </row>
+    <row r="867" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>44</v>
+      </c>
+      <c r="B867" t="s">
+        <v>46</v>
+      </c>
+      <c r="C867" t="s">
+        <v>58</v>
+      </c>
+      <c r="D867" t="s">
+        <v>63</v>
+      </c>
+      <c r="E867" t="s">
+        <v>69</v>
+      </c>
+      <c r="F867" t="s">
+        <v>73</v>
+      </c>
+      <c r="G867" t="s">
+        <v>77</v>
+      </c>
+      <c r="H867" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA867" s="24">
+        <v>16.664416203335978</v>
+      </c>
+    </row>
+    <row r="868" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>44</v>
+      </c>
+      <c r="B868" t="s">
+        <v>46</v>
+      </c>
+      <c r="C868" t="s">
+        <v>58</v>
+      </c>
+      <c r="D868" t="s">
+        <v>63</v>
+      </c>
+      <c r="E868" t="s">
+        <v>69</v>
+      </c>
+      <c r="F868" t="s">
+        <v>73</v>
+      </c>
+      <c r="G868" t="s">
+        <v>78</v>
+      </c>
+      <c r="H868" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA868" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="869" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>44</v>
+      </c>
+      <c r="B869" t="s">
+        <v>46</v>
+      </c>
+      <c r="C869" t="s">
+        <v>58</v>
+      </c>
+      <c r="D869" t="s">
+        <v>63</v>
+      </c>
+      <c r="E869" t="s">
+        <v>69</v>
+      </c>
+      <c r="F869" t="s">
+        <v>73</v>
+      </c>
+      <c r="G869" t="s">
+        <v>79</v>
+      </c>
+      <c r="H869" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA869" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="870" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>44</v>
+      </c>
+      <c r="B870" t="s">
+        <v>46</v>
+      </c>
+      <c r="C870" t="s">
+        <v>58</v>
+      </c>
+      <c r="D870" t="s">
+        <v>63</v>
+      </c>
+      <c r="E870" t="s">
+        <v>69</v>
+      </c>
+      <c r="F870" t="s">
+        <v>73</v>
+      </c>
+      <c r="G870" t="s">
+        <v>80</v>
+      </c>
+      <c r="H870" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA870" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="871" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>44</v>
+      </c>
+      <c r="B871" t="s">
+        <v>46</v>
+      </c>
+      <c r="C871" t="s">
+        <v>58</v>
+      </c>
+      <c r="D871" t="s">
+        <v>63</v>
+      </c>
+      <c r="E871" t="s">
+        <v>69</v>
+      </c>
+      <c r="F871" t="s">
+        <v>73</v>
+      </c>
+      <c r="H871" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA871" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>44</v>
+      </c>
+      <c r="B872" t="s">
+        <v>46</v>
+      </c>
+      <c r="C872" t="s">
+        <v>58</v>
+      </c>
+      <c r="D872" t="s">
+        <v>63</v>
+      </c>
+      <c r="E872" t="s">
+        <v>69</v>
+      </c>
+      <c r="F872" t="s">
+        <v>74</v>
+      </c>
+      <c r="H872" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA872" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>44</v>
+      </c>
+      <c r="B873" t="s">
+        <v>46</v>
+      </c>
+      <c r="C873" t="s">
+        <v>58</v>
+      </c>
+      <c r="D873" t="s">
+        <v>63</v>
+      </c>
+      <c r="E873" t="s">
+        <v>69</v>
+      </c>
+      <c r="F873" t="s">
+        <v>75</v>
+      </c>
+      <c r="H873" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA873" s="24">
+        <v>28.077732000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BV814" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:BV873" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="AMMONIA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="PROD_QUANT"/>
+        <filter val="STEEL_PRIM"/>
       </filters>
     </filterColumn>
   </autoFilter>
